--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/3ASY01_RNASeqGEO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/3ASY01_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC9D95-4046-2A42-844C-192E09C4C168}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284282D0-DB73-7148-9F3C-A83696954EE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="4" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
   <si>
     <t>Source Name</t>
   </si>
@@ -629,6 +629,14 @@
   </si>
   <si>
     <t>raw_files.single_or_paired-end</t>
+  </si>
+  <si>
+    <t>Also needs to map to:
+PAIRED-END EXPERIMENTS file name 1
+PAIRED-END EXPERIMENTS file name 2</t>
+  </si>
+  <si>
+    <t>MD5 checksum</t>
   </si>
 </sst>
 </file>
@@ -729,7 +737,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,6 +786,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -823,7 +837,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,6 +950,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -946,57 +963,6 @@
   <dxfs count="26">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1043,6 +1009,57 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1071,44 +1088,44 @@
     <tableColumn id="9" xr3:uid="{E47A58FD-232F-4440-8623-8F863EBE7722}" name="Parameter [Library layout]" dataDxfId="23"/>
     <tableColumn id="10" xr3:uid="{7F27F67A-0619-9744-B635-28EA2E1EE2CA}" name="Term Source REF [Library layout] (#h)"/>
     <tableColumn id="11" xr3:uid="{60293747-D5F7-E740-9296-E1E9B0006AC0}" name="Term Accession Number [Library layout] (#h)"/>
-    <tableColumn id="21" xr3:uid="{5A6E8EF8-95D7-EC4D-ACE1-04F64FD48B1D}" name="rRNA Depletion" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{1243D851-1C3F-494E-A25C-3B8BB8D0926B}" name="Parameter [Library preparation kit]" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{8E3BDAF6-B635-B24A-A064-4E8E9A22A1D8}" name="Term Source REF [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{E7CA87C9-F1BA-C441-A762-424DF654E451}" name="Term Accession Number [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{F4CB138B-D50D-AC40-AB47-F9127516E361}" name="Parameter [Library preparation kit version]" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{F10584D2-46CF-5B44-B4D4-435967CF4AFF}" name="Term Source REF [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{C597DC15-81F1-C740-B52D-F69FAB2EA5E6}" name="Term Accession Number [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{FC369AF1-57DB-7F44-9BF2-58D513DCFBBA}" name="Parameter [Adapter sequence]" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{4DBE9ADE-00E1-BD41-925D-58DFFE98D935}" name="Term Source REF [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{F4036B72-D4A4-7C48-A2F5-B6E6967B2009}" name="Term Accession Number [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{0CB5C37E-129C-8546-9BBA-9255AAB1830B}" name="Parameter [Library RNA amount]" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{5A6E8EF8-95D7-EC4D-ACE1-04F64FD48B1D}" name="rRNA Depletion" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{1243D851-1C3F-494E-A25C-3B8BB8D0926B}" name="Parameter [Library preparation kit]" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{8E3BDAF6-B635-B24A-A064-4E8E9A22A1D8}" name="Term Source REF [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{E7CA87C9-F1BA-C441-A762-424DF654E451}" name="Term Accession Number [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{F4CB138B-D50D-AC40-AB47-F9127516E361}" name="Parameter [Library preparation kit version]" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{F10584D2-46CF-5B44-B4D4-435967CF4AFF}" name="Term Source REF [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{C597DC15-81F1-C740-B52D-F69FAB2EA5E6}" name="Term Accession Number [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="16"/>
+    <tableColumn id="24" xr3:uid="{FC369AF1-57DB-7F44-9BF2-58D513DCFBBA}" name="Parameter [Adapter sequence]" dataDxfId="15"/>
+    <tableColumn id="25" xr3:uid="{4DBE9ADE-00E1-BD41-925D-58DFFE98D935}" name="Term Source REF [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="14"/>
+    <tableColumn id="26" xr3:uid="{F4036B72-D4A4-7C48-A2F5-B6E6967B2009}" name="Term Accession Number [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{0CB5C37E-129C-8546-9BBA-9255AAB1830B}" name="Parameter [Library RNA amount]" dataDxfId="12"/>
     <tableColumn id="19" xr3:uid="{D350DE95-22D9-4C48-8FD4-7F17FE1B153B}" name="Term Source REF [Library RNA amount] (#h; #tNFDI4PSO:0000016)"/>
     <tableColumn id="20" xr3:uid="{7E37E215-7AA7-3E45-BA96-B450C1E93B12}" name="Term Accession Number [Library RNA amount] (#h; #tNFDI4PSO:0000016)"/>
     <tableColumn id="36" xr3:uid="{9CAC168C-0CD8-E24A-B25C-EDA4E42AA84E}" name="Unit [microgram] (#h; #tUO:0000023; #u)"/>
     <tableColumn id="37" xr3:uid="{5AEAA556-05BD-FE4E-9E84-69BDB498DD20}" name="Term Source REF [microgram] (#h; #tUO:0000023; #u)"/>
     <tableColumn id="38" xr3:uid="{842C4352-C24F-0644-8593-D8736BB88F8D}" name="Term Accession Number [microgram] (#h; #tUO:0000023; #u)"/>
-    <tableColumn id="27" xr3:uid="{24CCEEDB-A0AF-684D-9D6D-7326D9EFB476}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="22"/>
+    <tableColumn id="27" xr3:uid="{24CCEEDB-A0AF-684D-9D6D-7326D9EFB476}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="11"/>
     <tableColumn id="28" xr3:uid="{2BFF580D-CCA0-0345-B808-5F5A1B3D3896}" name="Term Source REF [Next generation sequencing instrument model] (#h; #tNFDI4PSO:0000040)"/>
     <tableColumn id="29" xr3:uid="{95D5E7F6-2884-B745-BDA8-798418A2BD07}" name="Term Accession Number [Next generation sequencing instrument model] (#h; #tNFDI4PSO:0000040)"/>
-    <tableColumn id="30" xr3:uid="{EA7A7326-1A7C-A846-8FBF-E381D349698F}" name="Parameter [Base-calling Software]" dataDxfId="21"/>
+    <tableColumn id="30" xr3:uid="{EA7A7326-1A7C-A846-8FBF-E381D349698F}" name="Parameter [Base-calling Software]" dataDxfId="10"/>
     <tableColumn id="31" xr3:uid="{7D7B7455-8E82-2B46-9BB8-CA37B80DB468}" name="Term Source REF [Base-calling Software] (#h; #tNFDI4PSO:0000017)"/>
     <tableColumn id="32" xr3:uid="{EBDEFF6F-6B01-C54F-AF17-15C2AF95C7AB}" name="Term Accession Number [Base-calling Software] (#h; #tNFDI4PSO:0000017)"/>
-    <tableColumn id="33" xr3:uid="{440360CA-BD83-A24F-ACCB-F08E4E07B309}" name="Parameter [Base-calling Software Version]" dataDxfId="20"/>
+    <tableColumn id="33" xr3:uid="{440360CA-BD83-A24F-ACCB-F08E4E07B309}" name="Parameter [Base-calling Software Version]" dataDxfId="9"/>
     <tableColumn id="34" xr3:uid="{910E1F5D-888F-094B-B509-1D3E5EAF20B2}" name="Term Source REF [Base-calling Software Version] (#h; #tNFDI4PSO:0000018)"/>
     <tableColumn id="35" xr3:uid="{C3192EE8-6CFD-FA41-B093-05A3AFCD5131}" name="Term Accession Number [Base-calling Software Version] (#h; #tNFDI4PSO:0000018)"/>
-    <tableColumn id="39" xr3:uid="{80C1A8E9-93E0-E447-BD7C-42D79D1FCA97}" name="Parameter [Base-calling Software Parameters]" dataDxfId="19"/>
+    <tableColumn id="39" xr3:uid="{80C1A8E9-93E0-E447-BD7C-42D79D1FCA97}" name="Parameter [Base-calling Software Parameters]" dataDxfId="8"/>
     <tableColumn id="40" xr3:uid="{F919BED9-0D13-0D46-8D95-0BE92F377FAA}" name="Term Source REF [Base-calling Software Parameters] (#h; #tNFDI4PSO:0000019)"/>
     <tableColumn id="41" xr3:uid="{4D29BD77-D990-7043-9498-70A782038238}" name="Term Accession Number [Base-calling Software Parameters] (#h; #tNFDI4PSO:0000019)"/>
-    <tableColumn id="42" xr3:uid="{5DEEB0AA-4BC3-F04E-ADAF-CB6EC27B6F47}" name="Parameter [Library strand]" dataDxfId="18"/>
+    <tableColumn id="42" xr3:uid="{5DEEB0AA-4BC3-F04E-ADAF-CB6EC27B6F47}" name="Parameter [Library strand]" dataDxfId="7"/>
     <tableColumn id="43" xr3:uid="{4A2942EF-C8A7-B447-A2D0-71C6825B7E67}" name="Term Source REF [Library strand] (#h; #tNFDI4PSO:0000020)"/>
     <tableColumn id="44" xr3:uid="{F8E13DAD-A5E8-6043-93D9-AAF673CBB1AE}" name="Term Accession Number [Library strand] (#h; #tNFDI4PSO:0000020)"/>
-    <tableColumn id="45" xr3:uid="{6485F3EF-9735-B74E-958B-107722DC588D}" name="Data File Name" dataDxfId="17"/>
-    <tableColumn id="46" xr3:uid="{0425BA52-9F21-3C43-9855-4DCF1AB9FDC8}" name="Parameter [Raw data file format]" dataDxfId="16"/>
-    <tableColumn id="47" xr3:uid="{FFB5D601-D1A6-E247-9839-723F644EC700}" name="Term Source REF [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="15"/>
-    <tableColumn id="48" xr3:uid="{C692B159-D0C9-534A-A34D-23F9298131E4}" name="Term Accession Number [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="14"/>
-    <tableColumn id="49" xr3:uid="{00B39407-5107-5447-86CF-D22F8056A82A}" name="Parameter [Raw data file checksum]" dataDxfId="13"/>
-    <tableColumn id="50" xr3:uid="{4EC9F64B-15B4-AE42-8B72-B0FEA0C2E349}" name="Term Source REF [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="12"/>
-    <tableColumn id="51" xr3:uid="{F5E8E62E-F8E6-814B-B57F-6C79EC78A7D1}" name="Term Accession Number [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="11"/>
+    <tableColumn id="45" xr3:uid="{6485F3EF-9735-B74E-958B-107722DC588D}" name="Data File Name" dataDxfId="6"/>
+    <tableColumn id="46" xr3:uid="{0425BA52-9F21-3C43-9855-4DCF1AB9FDC8}" name="Parameter [Raw data file format]" dataDxfId="5"/>
+    <tableColumn id="47" xr3:uid="{FFB5D601-D1A6-E247-9839-723F644EC700}" name="Term Source REF [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="4"/>
+    <tableColumn id="48" xr3:uid="{C692B159-D0C9-534A-A34D-23F9298131E4}" name="Term Accession Number [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="3"/>
+    <tableColumn id="49" xr3:uid="{00B39407-5107-5447-86CF-D22F8056A82A}" name="Parameter [Raw data file checksum]" dataDxfId="2"/>
+    <tableColumn id="50" xr3:uid="{4EC9F64B-15B4-AE42-8B72-B0FEA0C2E349}" name="Term Source REF [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="1"/>
+    <tableColumn id="51" xr3:uid="{F5E8E62E-F8E6-814B-B57F-6C79EC78A7D1}" name="Term Accession Number [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1429,13 +1446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED1A3CE-FE98-7049-B638-99684531C7F7}">
-  <dimension ref="A1:BB69"/>
+  <dimension ref="A1:BA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="21" topLeftCell="O22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="21" topLeftCell="AJ22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="AW17" sqref="AW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2637,7 +2654,9 @@
       <c r="AT16" s="30"/>
       <c r="AU16" s="30"/>
       <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
+      <c r="AW16" s="30" t="s">
+        <v>155</v>
+      </c>
       <c r="AX16" s="30"/>
       <c r="AY16" s="30"/>
       <c r="AZ16" s="30"/>
@@ -3289,7 +3308,9 @@
       </c>
       <c r="AQ26" s="28"/>
       <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
+      <c r="AS26" s="56" t="s">
+        <v>154</v>
+      </c>
       <c r="AT26" s="28"/>
       <c r="AU26" s="28"/>
       <c r="AV26" s="28"/>
@@ -3358,7 +3379,7 @@
       <c r="AZ27" s="28"/>
       <c r="BA27" s="28"/>
     </row>
-    <row r="28" spans="1:53" s="49" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" s="49" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
         <v>58</v>
       </c>

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/3ASY01_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284282D0-DB73-7148-9F3C-A83696954EE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C34CA4A-DAA9-BA43-9303-B2125D68290D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -340,9 +340,6 @@
     <t xml:space="preserve">Comment: </t>
   </si>
   <si>
-    <t>ER Pipeline: GEO - RNASeq - Plants</t>
-  </si>
-  <si>
     <t>ER target term</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
   </si>
   <si>
     <t>MD5 checksum</t>
+  </si>
+  <si>
+    <t>ER GEO_RNASEQ</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -919,9 +919,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1452,7 +1449,7 @@
       <pane xSplit="2" ySplit="21" topLeftCell="AJ22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="AW17" sqref="AW17"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1607,7 +1604,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
@@ -1838,23 +1835,23 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
       <c r="N5" s="39"/>
       <c r="O5" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
@@ -1862,7 +1859,7 @@
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V5" s="28"/>
       <c r="W5" s="28"/>
@@ -1873,12 +1870,12 @@
       <c r="AB5" s="28"/>
       <c r="AC5" s="28"/>
       <c r="AD5" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE5" s="28"/>
       <c r="AF5" s="28"/>
       <c r="AG5" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
@@ -1891,17 +1888,17 @@
       <c r="AN5" s="25"/>
       <c r="AO5" s="25"/>
       <c r="AP5" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ5" s="25"/>
       <c r="AR5" s="25"/>
       <c r="AS5" s="28"/>
       <c r="AT5" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AU5" s="25"/>
       <c r="AV5" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AW5" s="33"/>
       <c r="AX5" s="25"/>
@@ -1917,17 +1914,17 @@
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
@@ -1939,7 +1936,7 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
@@ -1962,17 +1959,17 @@
       <c r="AN6" s="25"/>
       <c r="AO6" s="25"/>
       <c r="AP6" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ6" s="25"/>
       <c r="AR6" s="25"/>
       <c r="AS6" s="28"/>
       <c r="AT6" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU6" s="25"/>
       <c r="AV6" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW6" s="28"/>
       <c r="AX6" s="25"/>
@@ -1988,12 +1985,12 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -2008,7 +2005,7 @@
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
@@ -2031,7 +2028,7 @@
       <c r="AN7" s="25"/>
       <c r="AO7" s="25"/>
       <c r="AP7" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ7" s="25"/>
       <c r="AR7" s="25"/>
@@ -2224,38 +2221,38 @@
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="40"/>
       <c r="O11" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
       <c r="U11" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
       <c r="X11" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
@@ -2263,38 +2260,38 @@
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH11" s="26"/>
       <c r="AI11" s="26"/>
       <c r="AJ11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AK11" s="26"/>
       <c r="AL11" s="26"/>
       <c r="AM11" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN11" s="26"/>
       <c r="AO11" s="26"/>
       <c r="AP11" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AQ11" s="26"/>
       <c r="AR11" s="26"/>
       <c r="AS11" s="26"/>
       <c r="AT11" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AU11" s="26"/>
       <c r="AV11" s="26"/>
       <c r="AW11" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AX11" s="26"/>
       <c r="AY11" s="26"/>
@@ -2311,38 +2308,38 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="40"/>
       <c r="O12" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V12" s="27"/>
       <c r="W12" s="27"/>
       <c r="X12" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y12" s="27"/>
       <c r="Z12" s="27"/>
@@ -2350,38 +2347,38 @@
       <c r="AB12" s="27"/>
       <c r="AC12" s="27"/>
       <c r="AD12" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE12" s="27"/>
       <c r="AF12" s="27"/>
       <c r="AG12" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH12" s="27"/>
       <c r="AI12" s="27"/>
       <c r="AJ12" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK12" s="27"/>
       <c r="AL12" s="27"/>
       <c r="AM12" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN12" s="27"/>
       <c r="AO12" s="27"/>
       <c r="AP12" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="27"/>
       <c r="AS12" s="27"/>
       <c r="AT12" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AU12" s="27"/>
       <c r="AV12" s="27"/>
       <c r="AW12" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AX12" s="27"/>
       <c r="AY12" s="27"/>
@@ -2457,12 +2454,12 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -2471,17 +2468,17 @@
       <c r="M14" s="28"/>
       <c r="N14" s="40"/>
       <c r="O14" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
       <c r="U14" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
@@ -2492,12 +2489,12 @@
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
       <c r="AD14" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE14" s="28"/>
       <c r="AF14" s="28"/>
       <c r="AG14" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH14" s="28"/>
       <c r="AI14" s="28"/>
@@ -2530,12 +2527,12 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -2544,17 +2541,17 @@
       <c r="M15" s="29"/>
       <c r="N15" s="41"/>
       <c r="O15" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S15" s="29"/>
       <c r="T15" s="29"/>
       <c r="U15" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
@@ -2565,12 +2562,12 @@
       <c r="AB15" s="29"/>
       <c r="AC15" s="29"/>
       <c r="AD15" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE15" s="29"/>
       <c r="AF15" s="29"/>
       <c r="AG15" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH15" s="29"/>
       <c r="AI15" s="29"/>
@@ -2603,12 +2600,12 @@
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -2626,7 +2623,7 @@
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y16" s="30"/>
       <c r="Z16" s="30"/>
@@ -2637,7 +2634,7 @@
       <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
       <c r="AG16" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH16" s="30"/>
       <c r="AI16" s="30"/>
@@ -2655,7 +2652,7 @@
       <c r="AU16" s="30"/>
       <c r="AV16" s="30"/>
       <c r="AW16" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX16" s="30"/>
       <c r="AY16" s="30"/>
@@ -2682,7 +2679,7 @@
       <c r="M17" s="28"/>
       <c r="N17" s="40"/>
       <c r="O17" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
@@ -2702,7 +2699,7 @@
       <c r="AE17" s="28"/>
       <c r="AF17" s="28"/>
       <c r="AG17" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
@@ -2763,7 +2760,7 @@
       <c r="AE18" s="28"/>
       <c r="AF18" s="28"/>
       <c r="AG18" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH18" s="28"/>
       <c r="AI18" s="28"/>
@@ -2957,89 +2954,89 @@
     </row>
     <row r="22" spans="1:53" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="52" t="s">
-        <v>147</v>
+      <c r="E22" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="55" t="s">
-        <v>153</v>
+      <c r="K22" s="54" t="s">
+        <v>152</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="51" t="s">
-        <v>145</v>
+      <c r="O22" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
-      <c r="R22" s="51" t="s">
-        <v>145</v>
+      <c r="R22" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="S22" s="28"/>
       <c r="T22" s="28"/>
-      <c r="U22" s="51" t="s">
-        <v>145</v>
+      <c r="U22" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="V22" s="28"/>
       <c r="W22" s="28"/>
-      <c r="X22" s="51" t="s">
-        <v>145</v>
+      <c r="X22" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="Y22" s="28"/>
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
       <c r="AB22" s="28"/>
       <c r="AC22" s="28"/>
-      <c r="AD22" s="53" t="s">
-        <v>148</v>
+      <c r="AD22" s="52" t="s">
+        <v>147</v>
       </c>
       <c r="AE22" s="28"/>
       <c r="AF22" s="28"/>
-      <c r="AG22" s="54" t="s">
-        <v>149</v>
+      <c r="AG22" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="AH22" s="28"/>
       <c r="AI22" s="28"/>
-      <c r="AJ22" s="54" t="s">
-        <v>149</v>
+      <c r="AJ22" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="AK22" s="28"/>
       <c r="AL22" s="28"/>
-      <c r="AM22" s="54" t="s">
-        <v>149</v>
+      <c r="AM22" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="AN22" s="28"/>
       <c r="AO22" s="28"/>
-      <c r="AP22" s="54" t="s">
-        <v>149</v>
+      <c r="AP22" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="AQ22" s="28"/>
       <c r="AR22" s="28"/>
-      <c r="AS22" s="53" t="s">
+      <c r="AS22" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT22" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="AT22" s="53" t="s">
+      <c r="AU22" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="AU22" s="53" t="s">
-        <v>152</v>
-      </c>
       <c r="AV22" s="28"/>
-      <c r="AW22" s="53" t="s">
-        <v>152</v>
+      <c r="AW22" s="52" t="s">
+        <v>151</v>
       </c>
       <c r="AX22" s="28"/>
       <c r="AY22" s="28"/>
@@ -3048,46 +3045,46 @@
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="51" t="s">
-        <v>142</v>
+      <c r="O23" s="50" t="s">
+        <v>141</v>
       </c>
       <c r="P23" s="28"/>
       <c r="Q23" s="28"/>
-      <c r="R23" s="51" t="s">
-        <v>142</v>
+      <c r="R23" s="50" t="s">
+        <v>141</v>
       </c>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
-      <c r="U23" s="51" t="s">
-        <v>146</v>
+      <c r="U23" s="50" t="s">
+        <v>145</v>
       </c>
       <c r="V23" s="28"/>
       <c r="W23" s="28"/>
-      <c r="X23" s="51" t="s">
-        <v>142</v>
+      <c r="X23" s="50" t="s">
+        <v>141</v>
       </c>
       <c r="Y23" s="28"/>
       <c r="Z23" s="28"/>
@@ -3095,40 +3092,40 @@
       <c r="AB23" s="28"/>
       <c r="AC23" s="28"/>
       <c r="AD23" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE23" s="28"/>
       <c r="AF23" s="28"/>
       <c r="AG23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK23" s="28"/>
       <c r="AL23" s="28"/>
       <c r="AM23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AN23" s="28"/>
       <c r="AO23" s="28"/>
       <c r="AP23" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AQ23" s="28"/>
       <c r="AR23" s="28"/>
       <c r="AS23" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AT23" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AU23" s="28"/>
       <c r="AV23" s="28"/>
       <c r="AW23" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AX23" s="28"/>
       <c r="AY23" s="28"/>
@@ -3137,10 +3134,10 @@
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -3196,10 +3193,10 @@
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -3255,10 +3252,10 @@
     </row>
     <row r="26" spans="1:53" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
@@ -3269,7 +3266,7 @@
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
       <c r="K26" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
@@ -3290,7 +3287,7 @@
       <c r="AB26" s="28"/>
       <c r="AC26" s="28"/>
       <c r="AD26" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE26" s="28"/>
       <c r="AF26" s="28"/>
@@ -3303,13 +3300,13 @@
       <c r="AM26" s="28"/>
       <c r="AN26" s="28"/>
       <c r="AO26" s="28"/>
-      <c r="AP26" s="50" t="s">
-        <v>136</v>
+      <c r="AP26" s="49" t="s">
+        <v>135</v>
       </c>
       <c r="AQ26" s="28"/>
       <c r="AR26" s="28"/>
-      <c r="AS26" s="56" t="s">
-        <v>154</v>
+      <c r="AS26" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="AT26" s="28"/>
       <c r="AU26" s="28"/>
@@ -3322,10 +3319,10 @@
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -3379,74 +3376,74 @@
       <c r="AZ27" s="28"/>
       <c r="BA27" s="28"/>
     </row>
-    <row r="28" spans="1:53" s="49" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="48" t="s">
+    <row r="28" spans="1:53" s="48" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="O28" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="46"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="46"/>
-      <c r="AR28" s="46"/>
-      <c r="AS28" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT28" s="46"/>
-      <c r="AU28" s="46"/>
-      <c r="AV28" s="46"/>
-      <c r="AW28" s="46"/>
-      <c r="AX28" s="46"/>
-      <c r="AY28" s="46"/>
-      <c r="AZ28" s="46"/>
-      <c r="BA28" s="46"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="45"/>
+      <c r="AQ28" s="45"/>
+      <c r="AR28" s="45"/>
+      <c r="AS28" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT28" s="45"/>
+      <c r="AU28" s="45"/>
+      <c r="AV28" s="45"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="45"/>
+      <c r="AY28" s="45"/>
+      <c r="AZ28" s="45"/>
+      <c r="BA28" s="45"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY01_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA23C9-F215-DF40-A0CA-D9BB3549010E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0E6994-BBAE-0A44-B906-C5A2CDCCD901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4740" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="10500" yWindow="-21100" windowWidth="23180" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="4" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="185">
   <si>
     <t>Source Name</t>
   </si>
@@ -436,9 +436,6 @@
     <t>Library RNA amount</t>
   </si>
   <si>
-    <t>Specific for GEO / RNA-Seq template</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000040</t>
   </si>
   <si>
@@ -508,31 +505,7 @@
     <t>Raw data file checksum</t>
   </si>
   <si>
-    <t>protocols.library_construction_protocol</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>protocols.library_strategy</t>
-  </si>
-  <si>
-    <t>raw_files.instrument_model</t>
-  </si>
-  <si>
-    <t>data_processing_pipeline.data_processing_step</t>
-  </si>
-  <si>
-    <t>raw_files.file_name</t>
-  </si>
-  <si>
-    <t>raw_files.file_type</t>
-  </si>
-  <si>
     <t>raw_files.file_checksum</t>
-  </si>
-  <si>
-    <t>raw_files.single_or_paired-end</t>
   </si>
   <si>
     <t>Also needs to map to:
@@ -631,16 +604,225 @@
     <t>Comments towards the original template author</t>
   </si>
   <si>
-    <t>"Unable to find a parent class that covers both / only single vs. paired
-http://purl.obolibrary.org/obo/OBI_0600047
-http://purl.obolibrary.org/obo/NCIT_C150423"""</t>
+    <t>PROTOCOLS_library construction protocol</t>
+  </si>
+  <si>
+    <t>Describe the library construction protocol.</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>PROTOCOLS_library strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Sequence Read Archive-specific field that describes the sequencing technique for this library. Please select one of the following terms:
+RNA-Seq
+miRNA-Seq
+ncRNA-Seq
+RNA-Seq (size fractionation)
+RNA-Seq (CAGE)
+RNA-Seq (RACE)
+ssRNA-seq
+ChIP-Seq
+MNase-Seq
+MBD-Seq
+MRE-Seq
+Bisulfite-Seq
+Bisulfite-Seq (reduced representation)
+MeDIP-Seq
+DNase-Hypersensitivity
+Tn-Seq
+FAIRE-seq
+SELEX
+RIP-Seq
+ATAC-seq
+ChIA-PET
+Hi-C
+OTHER: specify
+</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>RAW FILES_single or paired-end</t>
+  </si>
+  <si>
+    <t>Enter "single" (usual case) or "paired-end".</t>
+  </si>
+  <si>
+    <t>RAW FILES_instrument model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include one of the following models:
+Illumina Genome Analyzer IIx
+Illumina HiSeq 1000
+Illumina HiSeq 1500
+Illumina HiSeq 2000
+Illumina HiSeq 2500
+Illumina HiSeq 3000
+Illumina HiSeq 4000
+Illumina NextSeq 500
+Illumina NextSeq 550
+Illumina HiSeq X Ten
+Illumina HiSeq X Five
+Illumina NovaSeq 6000
+Illumina MiSeq
+Illumina HiScanSQ
+Illumina MiniSeq
+Illumina iSeq 100
+BGISEQ-500
+DNBSEQ-G400
+DNBSEQ-T7
+DNBSEQ-G50
+Ion Torrent PGM
+Ion Torrent Proton
+Ion Torrent S5
+Ion Torrent S5 XL
+PacBio RS
+PacBio RS II
+Sequel
+Sequel II
+AB SOLiD System 2.0
+AB SOLiD System 3.0
+AB SOLiD 3 Plus System
+AB SOLiD 4 System
+AB SOLiD 4hq System
+AB SOLiD PI System
+AB 5500 Genetic Analyzer
+AB 5500xl Genetic Analyzer
+AB 5500xl-W Genetic Analysis System
+454 GS
+454 GS 20
+454 GS FLX
+454 GS FLX+
+454 GS Junior
+454 GS FLX Titanium
+Complete Genomics
+Helicos HeliScope
+GridION
+MinION
+PromethION
+</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer IIx
+Illumina HiSeq 1000
+Illumina HiSeq 1500
+Illumina HiSeq 2000
+Illumina HiSeq 2500
+Illumina HiSeq 3000
+Illumina HiSeq 4000
+Illumina NextSeq 500
+Illumina NextSeq 550
+Illumina HiSeq X Ten
+Illumina HiSeq X Five
+Illumina NovaSeq 6000
+Illumina MiSeq
+Illumina HiScanSQ
+Illumina MiniSeq
+Illumina iSeq 100
+BGISEQ-500
+DNBSEQ-G400
+DNBSEQ-T7
+DNBSEQ-G50
+Ion Torrent PGM
+Ion Torrent Proton
+Ion Torrent S5
+Ion Torrent S5 XL
+PacBio RS
+PacBio RS II
+Sequel
+Sequel II
+AB SOLiD System 2.0
+AB SOLiD System 3.0
+AB SOLiD 3 Plus System
+AB SOLiD 4 System
+AB SOLiD 4hq System
+AB SOLiD PI System
+AB 5500 Genetic Analyzer
+AB 5500xl Genetic Analyzer
+AB 5500xl-W Genetic Analysis System
+454 GS
+454 GS 20
+454 GS FLX
+454 GS FLX+
+454 GS Junior
+454 GS FLX Titanium
+Complete Genomics
+Helicos HeliScope
+GridION
+MinION
+PromethION</t>
+  </si>
+  <si>
+    <t>DATA PROCESSING PIPELINE_data processing step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
+Base-calling software, version, parameters;
+Data filtering steps;
+Read alignment software, version, parameters;
+Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+etc...
+</t>
+  </si>
+  <si>
+    <t>at least some info is required, but not all terms</t>
+  </si>
+  <si>
+    <t>RAW FILES_file name</t>
+  </si>
+  <si>
+    <t>RAW FILES_file type</t>
+  </si>
+  <si>
+    <t>RAW FILES_file checksum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include one of the following types:
+fastq
+bam
+Illumina_native_qseq
+Illumina_native
+SOLiD_native_csfasta
+SOLiD_native_qual
+sff
+454_native_seq
+454_native_qual
+Helicos_native
+srf
+PacBio_HDF5
+</t>
+  </si>
+  <si>
+    <t>[optional]
+MD5 checksum of the file. This helps us verify that the file transfer was complete and didn't corrupt your file.</t>
+  </si>
+  <si>
+    <t>MD5</t>
+  </si>
+  <si>
+    <t>fastq
+bam
+Illumina_native_qseq
+Illumina_native
+SOLiD_native_csfasta
+SOLiD_native_qual
+sff
+454_native_seq
+454_native_qual
+Helicos_native
+srf
+PacBio_HDF5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -722,13 +904,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -841,7 +1016,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -923,13 +1098,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -956,7 +1125,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -976,6 +1145,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1470,20 +1642,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED1A3CE-FE98-7049-B638-99684531C7F7}">
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:AZ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="23" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="23" topLeftCell="AT26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="AU29" sqref="AU29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="52" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.83203125" style="12" bestFit="1" customWidth="1"/>
@@ -1536,13 +1708,13 @@
     <col min="53" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
-        <v>147</v>
+        <v>137</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1594,9 +1766,9 @@
       <c r="AY1" s="4"/>
       <c r="AZ1" s="2"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1748,9 +1920,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1804,7 +1976,7 @@
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1858,9 +2030,9 @@
       <c r="AY4" s="13"/>
       <c r="AZ4" s="13"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1936,9 +2108,9 @@
       <c r="AY5" s="14"/>
       <c r="AZ5" s="14"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2006,9 +2178,9 @@
       <c r="AY6" s="14"/>
       <c r="AZ6" s="14"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2070,9 +2242,9 @@
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2126,9 +2298,9 @@
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2182,9 +2354,9 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2238,7 +2410,7 @@
       <c r="AY10" s="14"/>
       <c r="AZ10" s="14"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2292,15 +2464,15 @@
       <c r="AY11" s="13"/>
       <c r="AZ11" s="13"/>
     </row>
-    <row r="12" spans="1:52" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>150</v>
+      <c r="C12" s="40" t="s">
+        <v>141</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2344,51 +2516,51 @@
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI12" s="15"/>
       <c r="AJ12" s="15"/>
       <c r="AK12" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL12" s="15"/>
       <c r="AM12" s="15"/>
       <c r="AN12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO12" s="15"/>
       <c r="AP12" s="15"/>
       <c r="AQ12" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AR12" s="15"/>
       <c r="AS12" s="15"/>
       <c r="AT12" s="15"/>
       <c r="AU12" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AV12" s="15"/>
       <c r="AW12" s="15"/>
       <c r="AX12" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AY12" s="15"/>
       <c r="AZ12" s="15"/>
     </row>
-    <row r="13" spans="1:52" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>151</v>
+      <c r="C13" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2432,51 +2604,51 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
       <c r="AH13" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
       <c r="AK13" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL13" s="16"/>
       <c r="AM13" s="16"/>
       <c r="AN13" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AO13" s="16"/>
       <c r="AP13" s="16"/>
       <c r="AQ13" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
       <c r="AU13" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AV13" s="16"/>
       <c r="AW13" s="16"/>
       <c r="AX13" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
     </row>
-    <row r="14" spans="1:52" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>153</v>
+        <v>143</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -2528,15 +2700,15 @@
       <c r="AY14" s="17"/>
       <c r="AZ14" s="17"/>
     </row>
-    <row r="15" spans="1:52" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>154</v>
+      <c r="C15" s="49" t="s">
+        <v>145</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -2593,20 +2765,20 @@
       <c r="AV15" s="19"/>
       <c r="AW15" s="19"/>
       <c r="AX15" s="19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AY15" s="17"/>
       <c r="AZ15" s="17"/>
     </row>
-    <row r="16" spans="1:52" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>156</v>
+      <c r="C16" s="43" t="s">
+        <v>147</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -2658,14 +2830,14 @@
       <c r="AY16" s="18"/>
       <c r="AZ16" s="18"/>
     </row>
-    <row r="17" spans="1:52" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="49"/>
+        <v>148</v>
+      </c>
+      <c r="C17" s="45"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -2674,9 +2846,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="46" t="s">
-        <v>173</v>
-      </c>
+      <c r="L17" s="42"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="31"/>
@@ -2701,7 +2871,7 @@
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
@@ -2722,15 +2892,15 @@
       <c r="AY17" s="19"/>
       <c r="AZ17" s="19"/>
     </row>
-    <row r="18" spans="1:52" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>160</v>
+        <v>150</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>151</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2770,12 +2940,12 @@
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF18" s="17"/>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
@@ -2796,15 +2966,15 @@
       <c r="AY18" s="17"/>
       <c r="AZ18" s="17"/>
     </row>
-    <row r="19" spans="1:52" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>160</v>
+        <v>149</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>151</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2844,12 +3014,12 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="18"/>
       <c r="AE19" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
       <c r="AH19" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AI19" s="17"/>
       <c r="AJ19" s="17"/>
@@ -2870,14 +3040,14 @@
       <c r="AY19" s="17"/>
       <c r="AZ19" s="17"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="53"/>
+        <v>153</v>
+      </c>
+      <c r="C20" s="49"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -2909,7 +3079,7 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
       <c r="AH20" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI20" s="17"/>
       <c r="AJ20" s="17"/>
@@ -2930,14 +3100,14 @@
       <c r="AY20" s="17"/>
       <c r="AZ20" s="17"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="49"/>
+        <v>154</v>
+      </c>
+      <c r="C21" s="45"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -2946,7 +3116,9 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="L21" s="25" t="s">
+        <v>89</v>
+      </c>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="29"/>
@@ -2986,7 +3158,7 @@
       <c r="AY21" s="17"/>
       <c r="AZ21" s="17"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3040,10 +3212,10 @@
       <c r="AY22" s="20"/>
       <c r="AZ22" s="20"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
+    <row r="23" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -3094,385 +3266,451 @@
       <c r="AY23" s="20"/>
       <c r="AZ23" s="20"/>
     </row>
-    <row r="24" spans="1:52" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>164</v>
+      <c r="C24" s="43" t="s">
+        <v>155</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="38" t="s">
-        <v>136</v>
+      <c r="F24" t="s">
+        <v>167</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="17" t="s">
-        <v>134</v>
+      <c r="I24" t="s">
+        <v>164</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="41" t="s">
-        <v>142</v>
+      <c r="L24" t="s">
+        <v>170</v>
       </c>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="29"/>
-      <c r="P24" s="37" t="s">
-        <v>134</v>
+      <c r="P24" t="s">
+        <v>164</v>
       </c>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="37" t="s">
-        <v>134</v>
+      <c r="S24" t="s">
+        <v>164</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="37" t="s">
-        <v>134</v>
+      <c r="V24" t="s">
+        <v>164</v>
       </c>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="37" t="s">
-        <v>134</v>
+      <c r="Y24" t="s">
+        <v>164</v>
       </c>
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
-      <c r="AE24" s="39" t="s">
-        <v>137</v>
+      <c r="AE24" t="s">
+        <v>172</v>
       </c>
       <c r="AF24" s="17"/>
       <c r="AG24" s="17"/>
-      <c r="AH24" s="40" t="s">
-        <v>138</v>
+      <c r="AH24" t="s">
+        <v>175</v>
       </c>
       <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
-      <c r="AK24" s="40" t="s">
-        <v>138</v>
+      <c r="AK24" t="s">
+        <v>175</v>
       </c>
       <c r="AL24" s="17"/>
       <c r="AM24" s="17"/>
-      <c r="AN24" s="40" t="s">
-        <v>138</v>
+      <c r="AN24" t="s">
+        <v>175</v>
       </c>
       <c r="AO24" s="17"/>
       <c r="AP24" s="17"/>
-      <c r="AQ24" s="40" t="s">
-        <v>138</v>
+      <c r="AQ24" t="s">
+        <v>175</v>
       </c>
       <c r="AR24" s="17"/>
       <c r="AS24" s="17"/>
-      <c r="AT24" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU24" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV24" s="39" t="s">
-        <v>141</v>
+      <c r="AT24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV24" s="37" t="s">
+        <v>133</v>
       </c>
       <c r="AW24" s="17"/>
-      <c r="AX24" s="39" t="s">
-        <v>141</v>
+      <c r="AX24" t="s">
+        <v>180</v>
       </c>
       <c r="AY24" s="17"/>
       <c r="AZ24" s="17"/>
     </row>
-    <row r="25" spans="1:52" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>166</v>
+        <v>136</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>157</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
-        <v>82</v>
+      <c r="F25" t="s">
+        <v>168</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="17" t="s">
-        <v>131</v>
+      <c r="I25" t="s">
+        <v>165</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="17" t="s">
-        <v>82</v>
+      <c r="L25" t="s">
+        <v>171</v>
       </c>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="29"/>
-      <c r="P25" s="37" t="s">
-        <v>131</v>
+      <c r="P25" t="s">
+        <v>165</v>
       </c>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
-      <c r="S25" s="37" t="s">
-        <v>131</v>
+      <c r="S25" t="s">
+        <v>165</v>
       </c>
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
-      <c r="V25" s="37" t="s">
-        <v>135</v>
+      <c r="V25" t="s">
+        <v>165</v>
       </c>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
-      <c r="Y25" s="37" t="s">
-        <v>131</v>
+      <c r="Y25" t="s">
+        <v>165</v>
       </c>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
-      <c r="AE25" s="17" t="s">
-        <v>82</v>
+      <c r="AE25" t="s">
+        <v>173</v>
       </c>
       <c r="AF25" s="17"/>
       <c r="AG25" s="17"/>
-      <c r="AH25" s="17" t="s">
-        <v>131</v>
+      <c r="AH25" t="s">
+        <v>176</v>
       </c>
       <c r="AI25" s="17"/>
       <c r="AJ25" s="17"/>
-      <c r="AK25" s="17" t="s">
-        <v>131</v>
+      <c r="AK25" t="s">
+        <v>176</v>
       </c>
       <c r="AL25" s="17"/>
       <c r="AM25" s="17"/>
-      <c r="AN25" s="17" t="s">
-        <v>131</v>
+      <c r="AN25" t="s">
+        <v>176</v>
       </c>
       <c r="AO25" s="17"/>
       <c r="AP25" s="17"/>
-      <c r="AQ25" s="17" t="s">
-        <v>131</v>
+      <c r="AQ25" t="s">
+        <v>176</v>
       </c>
       <c r="AR25" s="17"/>
       <c r="AS25" s="17"/>
-      <c r="AT25" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU25" s="17" t="s">
-        <v>82</v>
+      <c r="AT25"/>
+      <c r="AU25" t="s">
+        <v>181</v>
       </c>
       <c r="AV25" s="17"/>
       <c r="AW25" s="17"/>
-      <c r="AX25" s="17" t="s">
-        <v>82</v>
+      <c r="AX25" t="s">
+        <v>182</v>
       </c>
       <c r="AY25" s="17"/>
       <c r="AZ25" s="17"/>
     </row>
-    <row r="26" spans="1:52" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>168</v>
+        <v>136</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>159</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="I26" t="s">
+        <v>82</v>
+      </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="L26" t="s">
+        <v>82</v>
+      </c>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="29"/>
-      <c r="P26" s="17"/>
+      <c r="P26" t="s">
+        <v>82</v>
+      </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
+      <c r="S26" t="s">
+        <v>82</v>
+      </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
+      <c r="V26" t="s">
+        <v>82</v>
+      </c>
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
+      <c r="Y26" t="s">
+        <v>82</v>
+      </c>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
+      <c r="AE26" t="s">
+        <v>82</v>
+      </c>
       <c r="AF26" s="17"/>
       <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
+      <c r="AH26" t="s">
+        <v>130</v>
+      </c>
       <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
+      <c r="AK26" t="s">
+        <v>130</v>
+      </c>
       <c r="AL26" s="17"/>
       <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
+      <c r="AN26" t="s">
+        <v>130</v>
+      </c>
       <c r="AO26" s="17"/>
       <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
+      <c r="AQ26" t="s">
+        <v>130</v>
+      </c>
       <c r="AR26" s="17"/>
       <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
+      <c r="AT26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>82</v>
+      </c>
       <c r="AV26" s="17"/>
       <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
+      <c r="AX26" t="s">
+        <v>130</v>
+      </c>
       <c r="AY26" s="17"/>
       <c r="AZ26" s="17"/>
     </row>
-    <row r="27" spans="1:52" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>170</v>
+        <v>136</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>161</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="I27" t="s">
+        <v>166</v>
+      </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="L27" t="s">
+        <v>169</v>
+      </c>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="17"/>
+      <c r="P27" t="s">
+        <v>166</v>
+      </c>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
+      <c r="S27" t="s">
+        <v>166</v>
+      </c>
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
+      <c r="V27" t="s">
+        <v>166</v>
+      </c>
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
+      <c r="Y27" t="s">
+        <v>166</v>
+      </c>
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
+      <c r="AE27" t="s">
+        <v>169</v>
+      </c>
       <c r="AF27" s="17"/>
       <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
+      <c r="AH27" t="s">
+        <v>166</v>
+      </c>
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
+      <c r="AK27" t="s">
+        <v>166</v>
+      </c>
       <c r="AL27" s="17"/>
       <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
+      <c r="AN27" t="s">
+        <v>166</v>
+      </c>
       <c r="AO27" s="17"/>
       <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
+      <c r="AQ27" t="s">
+        <v>166</v>
+      </c>
       <c r="AR27" s="17"/>
       <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
+      <c r="AT27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>169</v>
+      </c>
       <c r="AV27" s="17"/>
       <c r="AW27" s="17"/>
-      <c r="AX27" s="17"/>
+      <c r="AX27" t="s">
+        <v>183</v>
+      </c>
       <c r="AY27" s="17"/>
       <c r="AZ27" s="17"/>
     </row>
-    <row r="28" spans="1:52" ht="119" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="47" t="s">
-        <v>171</v>
+      <c r="C28" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="F28" t="s">
+        <v>168</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="I28"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="L28"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="17"/>
+      <c r="P28"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
+      <c r="S28"/>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
+      <c r="V28"/>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
+      <c r="Y28"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
-      <c r="AE28" s="17" t="s">
-        <v>110</v>
+      <c r="AE28" t="s">
+        <v>174</v>
       </c>
       <c r="AF28" s="17"/>
       <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
+      <c r="AH28" t="s">
+        <v>177</v>
+      </c>
       <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
+      <c r="AK28" t="s">
+        <v>177</v>
+      </c>
       <c r="AL28" s="17"/>
       <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
+      <c r="AN28" t="s">
+        <v>177</v>
+      </c>
       <c r="AO28" s="17"/>
       <c r="AP28" s="17"/>
       <c r="AQ28" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR28" s="17"/>
       <c r="AS28" s="17"/>
-      <c r="AT28" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU28" s="17"/>
+      <c r="AT28" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>184</v>
+      </c>
       <c r="AV28" s="17"/>
       <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
+      <c r="AX28"/>
       <c r="AY28" s="17"/>
       <c r="AZ28" s="17"/>
     </row>
-    <row r="29" spans="1:52" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>172</v>
+      <c r="C29" s="43" t="s">
+        <v>163</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -3521,23 +3759,22 @@
       <c r="AN29" s="32"/>
       <c r="AO29" s="32"/>
       <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
+      <c r="AQ29" s="53"/>
       <c r="AR29" s="32"/>
       <c r="AS29" s="32"/>
       <c r="AT29" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU29" s="32"/>
+        <v>125</v>
+      </c>
       <c r="AV29" s="32"/>
       <c r="AW29" s="32"/>
       <c r="AX29" s="32"/>
       <c r="AY29" s="32"/>
       <c r="AZ29" s="32"/>
     </row>
-    <row r="30" spans="1:52" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
+    <row r="30" spans="1:52" s="35" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY01_RNASeq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\3ASY01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0E6994-BBAE-0A44-B906-C5A2CDCCD901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91B3A1C-0956-4949-9798-172755D9ACB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="-21100" windowWidth="23180" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="192">
   <si>
     <t>Source Name</t>
   </si>
@@ -369,11 +378,6 @@
   </si>
   <si>
     <t>Library strategy</t>
-  </si>
-  <si>
-    <t>Unable to find a parent class that covers both / only single vs. paired
-http://purl.obolibrary.org/obo/OBI_0600047
-http://purl.obolibrary.org/obo/NCIT_C150423"</t>
   </si>
   <si>
     <t>For me, this belongs to the sequencing step, not to the construction step</t>
@@ -816,6 +820,33 @@
 Helicos_native
 srf
 PacBio_HDF5</t>
+  </si>
+  <si>
+    <t>User instruction missing</t>
+  </si>
+  <si>
+    <t>Unable to find a parent class that covers both / only single vs. paired
+http://purl.obolibrary.org/obo/OBI_0600047
+http://purl.obolibrary.org/obo/NCIT_C150423";
+User instruction missing</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>The instrument model used to sequence the sample.</t>
+  </si>
+  <si>
+    <t>The version of the Base-calling software used.</t>
+  </si>
+  <si>
+    <t>The name of the data file of this sample.</t>
+  </si>
+  <si>
+    <t>not required when Data File Name is used for the end "product"</t>
+  </si>
+  <si>
+    <t>The name of the input (the source) of this assay.</t>
   </si>
 </sst>
 </file>
@@ -916,7 +947,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,6 +1002,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1016,7 +1053,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,15 +1074,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1056,11 +1084,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1068,7 +1092,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1081,8 +1104,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1119,9 +1140,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1149,12 +1167,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{5A4EA250-5962-A84F-B56A-F423CA6BEC0B}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{DFD47CC1-D918-4340-9505-CC1F645AC6D8}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -1328,7 +1391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1645,76 +1708,76 @@
   <dimension ref="A1:AZ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="23" topLeftCell="AT26" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="AU29" sqref="AU29"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="62.5" style="12" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="42.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57" style="12" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="63.1640625" style="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="41.5" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="61.83203125" style="12" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="68" style="12" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="42.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="68.5" style="12" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="74.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="42.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="58" style="12" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="64.1640625" style="12" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="33.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="60.1640625" style="12" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="66.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="38.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="49.1640625" style="12" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="55.5" style="12" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="53.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="82.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="88.5" style="12" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="46.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="61.5" style="12" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="67.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="41.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="68.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="74.5" style="12" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="43" style="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="71.83203125" style="12" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="78" style="12" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="41.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="54.5" style="12" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="60.83203125" style="12" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="19.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="31.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="60.6640625" style="12" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="66.83203125" style="12" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="34.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="63.1640625" style="12" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="69.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="53" max="16384" width="11" style="12"/>
+    <col min="1" max="1" width="22.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.375" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="62.5" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="42.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57" style="9" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="63.125" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.375" style="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="41.5" style="9" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="61.875" style="9" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="68" style="9" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="42.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="68.5" style="9" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="74.625" style="9" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="42.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="58" style="9" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="64.125" style="9" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="33.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="60.125" style="9" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="66.375" style="9" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="38.375" style="9" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="49.125" style="9" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="55.5" style="9" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="53.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="82.375" style="9" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="88.5" style="9" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="46.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="61.5" style="9" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="67.625" style="9" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="41.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="68.375" style="9" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="74.5" style="9" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="43" style="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="71.875" style="9" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="78" style="9" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="41.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="54.5" style="9" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="60.875" style="9" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="19.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="60.625" style="9" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="66.875" style="9" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="34.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="63.125" style="9" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="69.375" style="9" hidden="1" customWidth="1"/>
+    <col min="53" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39" t="s">
-        <v>138</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1766,9 +1829,9 @@
       <c r="AY1" s="4"/>
       <c r="AZ1" s="2"/>
     </row>
-    <row r="2" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1805,7 +1868,7 @@
       <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="P2" t="s">
@@ -1920,9 +1983,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1937,7 +2000,7 @@
       <c r="L3" s="3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3" s="26"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -1976,679 +2039,679 @@
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
     </row>
-    <row r="5" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="17" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="17" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17" t="s">
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17" t="s">
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="14">
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="11">
         <v>1.7</v>
       </c>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="17" t="s">
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="22" t="s">
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="17" t="s">
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="14"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
     </row>
-    <row r="6" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="17" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="17" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="17" t="s">
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17" t="s">
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="17" t="s">
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="14"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
     </row>
-    <row r="7" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="17" t="s">
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
     </row>
-    <row r="8" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
     </row>
-    <row r="9" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
     </row>
-    <row r="10" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
     </row>
-    <row r="11" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
     </row>
-    <row r="12" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+    </row>
+    <row r="13" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15" t="s">
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15" t="s">
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15" t="s">
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15" t="s">
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15" t="s">
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY12" s="15"/>
-      <c r="AZ12" s="15"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
+      <c r="AX13" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="47"/>
     </row>
-    <row r="13" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="41" t="s">
+    <row r="14" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="16"/>
-    </row>
-    <row r="14" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>144</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -2661,7 +2724,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="29"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
@@ -2700,207 +2763,215 @@
       <c r="AY14" s="17"/>
       <c r="AZ14" s="17"/>
     </row>
-    <row r="15" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>145</v>
+      <c r="C15" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19" t="s">
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19" t="s">
-        <v>135</v>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32" t="s">
+        <v>134</v>
       </c>
       <c r="AY15" s="17"/>
       <c r="AZ15" s="17"/>
     </row>
-    <row r="16" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="43" t="s">
+      <c r="D16" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="49"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU16" s="49"/>
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="49"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="49"/>
+      <c r="AZ16" s="49"/>
+    </row>
+    <row r="17" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="18"/>
-      <c r="AT16" s="18"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="18"/>
-      <c r="AX16" s="18"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="18"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="32"/>
     </row>
-    <row r="17" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-    </row>
-    <row r="18" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="33" t="s">
         <v>150</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>151</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2917,19 +2988,19 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="29"/>
+      <c r="O18" s="26"/>
       <c r="P18" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
@@ -2940,12 +3011,12 @@
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF18" s="17"/>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
@@ -2966,60 +3037,60 @@
       <c r="AY18" s="17"/>
       <c r="AZ18" s="17"/>
     </row>
-    <row r="19" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="43" t="s">
+    <row r="19" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="52" t="s">
         <v>151</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="23" t="s">
-        <v>115</v>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="AI19" s="17"/>
       <c r="AJ19" s="17"/>
@@ -3040,14 +3111,14 @@
       <c r="AY19" s="17"/>
       <c r="AZ19" s="17"/>
     </row>
-    <row r="20" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="49"/>
+    <row r="20" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="38"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -3059,7 +3130,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="29"/>
+      <c r="O20" s="26"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -3079,7 +3150,7 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
       <c r="AH20" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI20" s="17"/>
       <c r="AJ20" s="17"/>
@@ -3100,37 +3171,54 @@
       <c r="AY20" s="17"/>
       <c r="AZ20" s="17"/>
     </row>
-    <row r="21" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="45"/>
+    <row r="21" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="25" t="s">
-        <v>89</v>
+      <c r="L21" s="55" t="s">
+        <v>185</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="29"/>
+      <c r="O21" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="P21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
+      <c r="S21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
+      <c r="V21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
+      <c r="Y21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
@@ -3139,691 +3227,702 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="17"/>
       <c r="AG21" s="17"/>
+      <c r="AH21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="AI21" s="17"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
       <c r="AL21" s="17"/>
       <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
+      <c r="AN21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="AO21" s="17"/>
       <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
+      <c r="AQ21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="AR21" s="17"/>
       <c r="AS21" s="17"/>
       <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
+      <c r="AU21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="AV21" s="17"/>
       <c r="AW21" s="17"/>
-      <c r="AX21" s="17"/>
+      <c r="AX21" s="54" t="s">
+        <v>184</v>
+      </c>
       <c r="AY21" s="17"/>
       <c r="AZ21" s="17"/>
     </row>
-    <row r="22" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
+    <row r="22" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
     </row>
-    <row r="23" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="20"/>
-      <c r="AW23" s="20"/>
-      <c r="AX23" s="20"/>
-      <c r="AY23" s="20"/>
-      <c r="AZ23" s="20"/>
+    <row r="23" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
     </row>
-    <row r="24" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="21"/>
+      <c r="P24" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" t="s">
+        <v>163</v>
+      </c>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" t="s">
+        <v>163</v>
+      </c>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV24" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW24" s="12"/>
+      <c r="AX24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+    </row>
+    <row r="25" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" t="s">
+      <c r="C25" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" t="s">
         <v>164</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" t="s">
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" t="s">
         <v>170</v>
       </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="29"/>
-      <c r="P24" t="s">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="21"/>
+      <c r="P25" t="s">
         <v>164</v>
       </c>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" t="s">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" t="s">
         <v>164</v>
       </c>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" t="s">
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" t="s">
         <v>164</v>
       </c>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" t="s">
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" t="s">
         <v>164</v>
       </c>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" t="s">
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" t="s">
         <v>172</v>
       </c>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" t="s">
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" t="s">
         <v>175</v>
       </c>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" t="s">
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" t="s">
         <v>175</v>
       </c>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" t="s">
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" t="s">
         <v>175</v>
       </c>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" t="s">
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" t="s">
         <v>175</v>
       </c>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV24" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW24" s="17"/>
-      <c r="AX24" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="17"/>
-    </row>
-    <row r="25" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" t="s">
-        <v>165</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" t="s">
-        <v>171</v>
-      </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="29"/>
-      <c r="P25" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" t="s">
-        <v>165</v>
-      </c>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" t="s">
-        <v>165</v>
-      </c>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
       <c r="AT25"/>
       <c r="AU25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" t="s">
         <v>181</v>
       </c>
-      <c r="AV25" s="17"/>
-      <c r="AW25" s="17"/>
-      <c r="AX25" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY25" s="17"/>
-      <c r="AZ25" s="17"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
     </row>
-    <row r="26" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="I26" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
       <c r="L26" t="s">
         <v>82</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="29"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="21"/>
       <c r="P26" t="s">
         <v>82</v>
       </c>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
       <c r="S26" t="s">
         <v>82</v>
       </c>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
       <c r="V26" t="s">
         <v>82</v>
       </c>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
       <c r="Y26" t="s">
         <v>82</v>
       </c>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
       <c r="AE26" t="s">
         <v>82</v>
       </c>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
       <c r="AH26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
       <c r="AK26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
       <c r="AN26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
       <c r="AQ26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
       <c r="AT26" t="s">
         <v>82</v>
       </c>
       <c r="AU26" t="s">
         <v>82</v>
       </c>
-      <c r="AV26" s="17"/>
-      <c r="AW26" s="17"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
       <c r="AX26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
     </row>
-    <row r="27" spans="1:52" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" t="s">
+        <v>168</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="21"/>
+      <c r="P27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" t="s">
+        <v>165</v>
+      </c>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" t="s">
+        <v>165</v>
+      </c>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+    </row>
+    <row r="28" spans="1:52" ht="96.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" t="s">
-        <v>166</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" t="s">
-        <v>169</v>
-      </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="29"/>
-      <c r="P27" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" t="s">
-        <v>166</v>
-      </c>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" t="s">
-        <v>166</v>
-      </c>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV27" s="17"/>
-      <c r="AW27" s="17"/>
-      <c r="AX27" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="21"/>
+      <c r="P28"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU28" t="s">
         <v>183</v>
       </c>
-      <c r="AY27" s="17"/>
-      <c r="AZ27" s="17"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
     </row>
-    <row r="28" spans="1:52" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="43" t="s">
+    <row r="29" spans="1:52" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="29"/>
-      <c r="P28"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="36" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="22"/>
+      <c r="AI29" s="22"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV28" s="17"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="17"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
     </row>
-    <row r="29" spans="1:52" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="53"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV29" s="32"/>
-      <c r="AW29" s="32"/>
-      <c r="AX29" s="32"/>
-      <c r="AY29" s="32"/>
-      <c r="AZ29" s="32"/>
-    </row>
-    <row r="30" spans="1:52" s="35" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="21"/>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="21"/>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="21"/>
-      <c r="AS30" s="21"/>
-      <c r="AT30" s="21"/>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="21"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
+    <row r="30" spans="1:52" s="25" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\3ASY01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91B3A1C-0956-4949-9798-172755D9ACB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F63DF49-59BA-4995-9986-761A4D84B781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="4" r:id="rId1"/>
@@ -1711,7 +1711,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\3ASY01_RNASeq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY01_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F63DF49-59BA-4995-9986-761A4D84B781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE4CE5F-09D6-3E4F-9887-C358D0774EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-25900" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="4" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -110,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="189">
   <si>
     <t>Source Name</t>
   </si>
@@ -238,15 +229,6 @@
     <t>Term Accession Number [Raw data file format] (#h; #tNFDI4PSO:0000021)</t>
   </si>
   <si>
-    <t>Parameter [Raw data file checksum]</t>
-  </si>
-  <si>
-    <t>Term Source REF [Raw data file checksum] (#h; #tNFDI4PSO:0000022)</t>
-  </si>
-  <si>
-    <t>Term Accession Number [Raw data file checksum] (#h; #tNFDI4PSO:0000022)</t>
-  </si>
-  <si>
     <t>Unit [microgram] (#h; #tUO:0000023; #u)</t>
   </si>
   <si>
@@ -361,10 +343,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>Needs to have all instances from seq template (GEO)
-Add instances to NFDI4PSO ontology from seq template</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000036</t>
   </si>
   <si>
@@ -386,9 +364,6 @@
     <t>How to handle deviations from instructer´s manual?</t>
   </si>
   <si>
-    <t>Add kits as instances to select from</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000015</t>
   </si>
   <si>
@@ -458,9 +433,6 @@
     <t>http://purl.obolibrary.org/obo/OBI_0002468</t>
   </si>
   <si>
-    <t>Add base-calling softwares as instances</t>
-  </si>
-  <si>
     <t>Alternative: http://edamontology.org/operation_3185</t>
   </si>
   <si>
@@ -501,12 +473,6 @@
   </si>
   <si>
     <t>o</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000022</t>
-  </si>
-  <si>
-    <t>Raw data file checksum</t>
   </si>
   <si>
     <t>raw_files.file_checksum</t>
@@ -515,9 +481,6 @@
     <t>Also needs to map to:
 PAIRED-END EXPERIMENTS file name 1
 PAIRED-END EXPERIMENTS file name 2</t>
-  </si>
-  <si>
-    <t>MD5 checksum</t>
   </si>
   <si>
     <t>ER GEO_RNASEQ</t>
@@ -782,9 +745,6 @@
     <t>RAW FILES_file type</t>
   </si>
   <si>
-    <t>RAW FILES_file checksum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Include one of the following types:
 fastq
 bam
@@ -801,13 +761,6 @@
 </t>
   </si>
   <si>
-    <t>[optional]
-MD5 checksum of the file. This helps us verify that the file transfer was complete and didn't corrupt your file.</t>
-  </si>
-  <si>
-    <t>MD5</t>
-  </si>
-  <si>
     <t>fastq
 bam
 Illumina_native_qseq
@@ -825,28 +778,54 @@
     <t>User instruction missing</t>
   </si>
   <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>The instrument model used to sequence the sample.</t>
+  </si>
+  <si>
+    <t>The version of the Base-calling software used.</t>
+  </si>
+  <si>
+    <t>The name of the data file of this sample.</t>
+  </si>
+  <si>
+    <t>Name the software used for base-calling</t>
+  </si>
+  <si>
+    <t>Name the sequencing technique used for this library.</t>
+  </si>
+  <si>
+    <t>Name the library layout (single or paired)</t>
+  </si>
+  <si>
     <t>Unable to find a parent class that covers both / only single vs. paired
 http://purl.obolibrary.org/obo/OBI_0600047
-http://purl.obolibrary.org/obo/NCIT_C150423";
-User instruction missing</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>The instrument model used to sequence the sample.</t>
-  </si>
-  <si>
-    <t>The version of the Base-calling software used.</t>
-  </si>
-  <si>
-    <t>The name of the data file of this sample.</t>
-  </si>
-  <si>
-    <t>not required when Data File Name is used for the end "product"</t>
-  </si>
-  <si>
-    <t>The name of the input (the source) of this assay.</t>
+http://purl.obolibrary.org/obo/NCIT_C150423";</t>
+  </si>
+  <si>
+    <t>Name the selection method used for library construction.</t>
+  </si>
+  <si>
+    <t>Name the library preparation kit used for library construction.</t>
+  </si>
+  <si>
+    <t>Name the version of the library preparation kit used for library construction.</t>
+  </si>
+  <si>
+    <t>List the adapter sequence(s) used for library construction.</t>
+  </si>
+  <si>
+    <t>Name the amount of RNA used as a start for library construction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name additional parameters of the base-calling software. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name the library strand for this sample (reverse or forward). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name the raw format of the data file. </t>
   </si>
 </sst>
 </file>
@@ -1107,9 +1086,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1198,9 +1174,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1212,23 +1185,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{5A4EA250-5962-A84F-B56A-F423CA6BEC0B}"/>
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{DFD47CC1-D918-4340-9505-CC1F645AC6D8}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1333,65 +1301,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{644C39E7-36F0-9A4B-B432-FC158C4EAA9E}" name="annotationTable2" displayName="annotationTable2" ref="D2:AZ3" totalsRowShown="0">
-  <autoFilter ref="D2:AZ3" xr:uid="{3BC338A9-04C5-5343-BA22-34CA5045E92A}"/>
-  <tableColumns count="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{644C39E7-36F0-9A4B-B432-FC158C4EAA9E}" name="annotationTable2" displayName="annotationTable2" ref="D2:AW3" totalsRowShown="0">
+  <autoFilter ref="D2:AW3" xr:uid="{3BC338A9-04C5-5343-BA22-34CA5045E92A}"/>
+  <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{9ACF2691-D990-5D41-9C6B-275BFA06B6B8}" name="Source Name"/>
     <tableColumn id="2" xr3:uid="{B871C6EF-90A3-1D4E-A537-D8FF5106BDBF}" name="Sample Name"/>
-    <tableColumn id="3" xr3:uid="{94199463-8351-514E-9EAD-DFF200FA0E38}" name="Parameter [Library strategy]" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{94199463-8351-514E-9EAD-DFF200FA0E38}" name="Parameter [Library strategy]" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{B1496354-2C5D-1C48-B0C5-B2D186BB2C34}" name="Term Source REF [Library strategy] (#h; #tNFDI4PSO:0000035)"/>
     <tableColumn id="5" xr3:uid="{99D60052-24DF-8C41-A74E-AA5E1DF3D60B}" name="Term Accession Number [Library strategy] (#h; #tNFDI4PSO:0000035)"/>
-    <tableColumn id="6" xr3:uid="{FC5523AE-20D6-9146-AE4D-5A54F4869A9D}" name="Parameter [Library Selection]" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{FC5523AE-20D6-9146-AE4D-5A54F4869A9D}" name="Parameter [Library Selection]" dataDxfId="21"/>
     <tableColumn id="7" xr3:uid="{39DA5E12-4B2B-8E43-A47E-CEF96F39EFD4}" name="Term Source REF [Library Selection] (#h; #tNFDI4PSO:0000036)"/>
     <tableColumn id="8" xr3:uid="{B3C8EAFE-44F7-4247-B18F-EAD4B194CFE9}" name="Term Accession Number [Library Selection] (#h; #tNFDI4PSO:0000036)"/>
-    <tableColumn id="9" xr3:uid="{E47A58FD-232F-4440-8623-8F863EBE7722}" name="Parameter [Library layout]" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{E47A58FD-232F-4440-8623-8F863EBE7722}" name="Parameter [Library layout]" dataDxfId="20"/>
     <tableColumn id="10" xr3:uid="{7F27F67A-0619-9744-B635-28EA2E1EE2CA}" name="Term Source REF [Library layout] (#h)"/>
     <tableColumn id="11" xr3:uid="{60293747-D5F7-E740-9296-E1E9B0006AC0}" name="Term Accession Number [Library layout] (#h)"/>
-    <tableColumn id="21" xr3:uid="{5A6E8EF8-95D7-EC4D-ACE1-04F64FD48B1D}" name="rRNA Depletion" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{1243D851-1C3F-494E-A25C-3B8BB8D0926B}" name="Parameter [Library preparation kit]" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{8E3BDAF6-B635-B24A-A064-4E8E9A22A1D8}" name="Term Source REF [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{E7CA87C9-F1BA-C441-A762-424DF654E451}" name="Term Accession Number [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{F4CB138B-D50D-AC40-AB47-F9127516E361}" name="Parameter [Library preparation kit version]" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{F10584D2-46CF-5B44-B4D4-435967CF4AFF}" name="Term Source REF [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{C597DC15-81F1-C740-B52D-F69FAB2EA5E6}" name="Term Accession Number [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="16"/>
-    <tableColumn id="24" xr3:uid="{FC369AF1-57DB-7F44-9BF2-58D513DCFBBA}" name="Parameter [Adapter sequence]" dataDxfId="15"/>
-    <tableColumn id="25" xr3:uid="{4DBE9ADE-00E1-BD41-925D-58DFFE98D935}" name="Term Source REF [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="14"/>
-    <tableColumn id="26" xr3:uid="{F4036B72-D4A4-7C48-A2F5-B6E6967B2009}" name="Term Accession Number [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{0CB5C37E-129C-8546-9BBA-9255AAB1830B}" name="Parameter [Library RNA amount]" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{5A6E8EF8-95D7-EC4D-ACE1-04F64FD48B1D}" name="rRNA Depletion" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{1243D851-1C3F-494E-A25C-3B8BB8D0926B}" name="Parameter [Library preparation kit]" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{8E3BDAF6-B635-B24A-A064-4E8E9A22A1D8}" name="Term Source REF [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{E7CA87C9-F1BA-C441-A762-424DF654E451}" name="Term Accession Number [Library preparation kit] (#h; #tNFDI4PSO:0000037)" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{F4CB138B-D50D-AC40-AB47-F9127516E361}" name="Parameter [Library preparation kit version]" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{F10584D2-46CF-5B44-B4D4-435967CF4AFF}" name="Term Source REF [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{C597DC15-81F1-C740-B52D-F69FAB2EA5E6}" name="Term Accession Number [Library preparation kit version] (#h; #tNFDI4PSO:0000038)" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{FC369AF1-57DB-7F44-9BF2-58D513DCFBBA}" name="Parameter [Adapter sequence]" dataDxfId="12"/>
+    <tableColumn id="25" xr3:uid="{4DBE9ADE-00E1-BD41-925D-58DFFE98D935}" name="Term Source REF [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="11"/>
+    <tableColumn id="26" xr3:uid="{F4036B72-D4A4-7C48-A2F5-B6E6967B2009}" name="Term Accession Number [Adapter sequence] (#h; #tNFDI4PSO:0000039)" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{0CB5C37E-129C-8546-9BBA-9255AAB1830B}" name="Parameter [Library RNA amount]" dataDxfId="9"/>
     <tableColumn id="19" xr3:uid="{D350DE95-22D9-4C48-8FD4-7F17FE1B153B}" name="Term Source REF [Library RNA amount] (#h; #tNFDI4PSO:0000016)"/>
     <tableColumn id="20" xr3:uid="{7E37E215-7AA7-3E45-BA96-B450C1E93B12}" name="Term Accession Number [Library RNA amount] (#h; #tNFDI4PSO:0000016)"/>
     <tableColumn id="36" xr3:uid="{9CAC168C-0CD8-E24A-B25C-EDA4E42AA84E}" name="Unit [microgram] (#h; #tUO:0000023; #u)"/>
     <tableColumn id="37" xr3:uid="{5AEAA556-05BD-FE4E-9E84-69BDB498DD20}" name="Term Source REF [microgram] (#h; #tUO:0000023; #u)"/>
     <tableColumn id="38" xr3:uid="{842C4352-C24F-0644-8593-D8736BB88F8D}" name="Term Accession Number [microgram] (#h; #tUO:0000023; #u)"/>
-    <tableColumn id="27" xr3:uid="{24CCEEDB-A0AF-684D-9D6D-7326D9EFB476}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{24CCEEDB-A0AF-684D-9D6D-7326D9EFB476}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="8"/>
     <tableColumn id="28" xr3:uid="{2BFF580D-CCA0-0345-B808-5F5A1B3D3896}" name="Term Source REF [Next generation sequencing instrument model] (#h; #tNFDI4PSO:0000040)"/>
     <tableColumn id="29" xr3:uid="{95D5E7F6-2884-B745-BDA8-798418A2BD07}" name="Term Accession Number [Next generation sequencing instrument model] (#h; #tNFDI4PSO:0000040)"/>
-    <tableColumn id="30" xr3:uid="{EA7A7326-1A7C-A846-8FBF-E381D349698F}" name="Parameter [Base-calling Software]" dataDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{EA7A7326-1A7C-A846-8FBF-E381D349698F}" name="Parameter [Base-calling Software]" dataDxfId="7"/>
     <tableColumn id="31" xr3:uid="{7D7B7455-8E82-2B46-9BB8-CA37B80DB468}" name="Term Source REF [Base-calling Software] (#h; #tNFDI4PSO:0000017)"/>
     <tableColumn id="32" xr3:uid="{EBDEFF6F-6B01-C54F-AF17-15C2AF95C7AB}" name="Term Accession Number [Base-calling Software] (#h; #tNFDI4PSO:0000017)"/>
-    <tableColumn id="33" xr3:uid="{440360CA-BD83-A24F-ACCB-F08E4E07B309}" name="Parameter [Base-calling Software Version]" dataDxfId="9"/>
+    <tableColumn id="33" xr3:uid="{440360CA-BD83-A24F-ACCB-F08E4E07B309}" name="Parameter [Base-calling Software Version]" dataDxfId="6"/>
     <tableColumn id="34" xr3:uid="{910E1F5D-888F-094B-B509-1D3E5EAF20B2}" name="Term Source REF [Base-calling Software Version] (#h; #tNFDI4PSO:0000018)"/>
     <tableColumn id="35" xr3:uid="{C3192EE8-6CFD-FA41-B093-05A3AFCD5131}" name="Term Accession Number [Base-calling Software Version] (#h; #tNFDI4PSO:0000018)"/>
-    <tableColumn id="39" xr3:uid="{80C1A8E9-93E0-E447-BD7C-42D79D1FCA97}" name="Parameter [Base-calling Software Parameters]" dataDxfId="8"/>
+    <tableColumn id="39" xr3:uid="{80C1A8E9-93E0-E447-BD7C-42D79D1FCA97}" name="Parameter [Base-calling Software Parameters]" dataDxfId="5"/>
     <tableColumn id="40" xr3:uid="{F919BED9-0D13-0D46-8D95-0BE92F377FAA}" name="Term Source REF [Base-calling Software Parameters] (#h; #tNFDI4PSO:0000019)"/>
     <tableColumn id="41" xr3:uid="{4D29BD77-D990-7043-9498-70A782038238}" name="Term Accession Number [Base-calling Software Parameters] (#h; #tNFDI4PSO:0000019)"/>
-    <tableColumn id="42" xr3:uid="{5DEEB0AA-4BC3-F04E-ADAF-CB6EC27B6F47}" name="Parameter [Library strand]" dataDxfId="7"/>
+    <tableColumn id="42" xr3:uid="{5DEEB0AA-4BC3-F04E-ADAF-CB6EC27B6F47}" name="Parameter [Library strand]" dataDxfId="4"/>
     <tableColumn id="43" xr3:uid="{4A2942EF-C8A7-B447-A2D0-71C6825B7E67}" name="Term Source REF [Library strand] (#h; #tNFDI4PSO:0000020)"/>
     <tableColumn id="44" xr3:uid="{F8E13DAD-A5E8-6043-93D9-AAF673CBB1AE}" name="Term Accession Number [Library strand] (#h; #tNFDI4PSO:0000020)"/>
-    <tableColumn id="45" xr3:uid="{6485F3EF-9735-B74E-958B-107722DC588D}" name="Data File Name" dataDxfId="6"/>
-    <tableColumn id="46" xr3:uid="{0425BA52-9F21-3C43-9855-4DCF1AB9FDC8}" name="Parameter [Raw data file format]" dataDxfId="5"/>
-    <tableColumn id="47" xr3:uid="{FFB5D601-D1A6-E247-9839-723F644EC700}" name="Term Source REF [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="4"/>
-    <tableColumn id="48" xr3:uid="{C692B159-D0C9-534A-A34D-23F9298131E4}" name="Term Accession Number [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="3"/>
-    <tableColumn id="49" xr3:uid="{00B39407-5107-5447-86CF-D22F8056A82A}" name="Parameter [Raw data file checksum]" dataDxfId="2"/>
-    <tableColumn id="50" xr3:uid="{4EC9F64B-15B4-AE42-8B72-B0FEA0C2E349}" name="Term Source REF [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="1"/>
-    <tableColumn id="51" xr3:uid="{F5E8E62E-F8E6-814B-B57F-6C79EC78A7D1}" name="Term Accession Number [Raw data file checksum] (#h; #tNFDI4PSO:0000022)" dataDxfId="0"/>
+    <tableColumn id="45" xr3:uid="{6485F3EF-9735-B74E-958B-107722DC588D}" name="Data File Name" dataDxfId="3"/>
+    <tableColumn id="46" xr3:uid="{0425BA52-9F21-3C43-9855-4DCF1AB9FDC8}" name="Parameter [Raw data file format]" dataDxfId="2"/>
+    <tableColumn id="47" xr3:uid="{FFB5D601-D1A6-E247-9839-723F644EC700}" name="Term Source REF [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="1"/>
+    <tableColumn id="48" xr3:uid="{C692B159-D0C9-534A-A34D-23F9298131E4}" name="Term Accession Number [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1711,73 +1676,72 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.375" style="9" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="62.5" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="42.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57" style="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="63.125" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.375" style="9" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="63.1640625" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="41.5" style="9" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="61.875" style="9" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="61.83203125" style="9" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="68" style="9" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="42.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="68.5" style="9" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="74.625" style="9" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="42.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="74.6640625" style="9" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="42.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="58" style="9" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="64.125" style="9" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="33.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="60.125" style="9" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="66.375" style="9" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="38.375" style="9" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="49.125" style="9" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="64.1640625" style="9" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="35.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="60.1640625" style="9" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="66.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="38.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="49.1640625" style="9" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="55.5" style="9" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="53.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="82.375" style="9" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="255.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="82.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="88.5" style="9" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="46.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="245.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="61.5" style="9" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="67.625" style="9" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="41.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="68.375" style="9" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="67.6640625" style="9" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="245.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="68.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="74.5" style="9" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="43" style="9" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="71.875" style="9" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="245.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="71.83203125" style="9" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="78" style="9" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="41.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="245.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="54.5" style="9" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="60.875" style="9" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="19.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="31.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="60.625" style="9" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="66.875" style="9" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="34.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="63.125" style="9" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="69.375" style="9" hidden="1" customWidth="1"/>
-    <col min="53" max="16384" width="11" style="9"/>
+    <col min="45" max="45" width="60.83203125" style="9" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="23" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="164.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="60.6640625" style="9" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="66.83203125" style="9" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="63.1640625" style="9" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="69.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="52" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
-        <v>137</v>
+        <v>127</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
@@ -1826,12 +1790,11 @@
       <c r="AV1" s="4"/>
       <c r="AW1" s="4"/>
       <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="2"/>
+      <c r="AY1" s="2"/>
     </row>
-    <row r="2" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1869,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
         <v>11</v>
@@ -1908,13 +1871,13 @@
         <v>19</v>
       </c>
       <c r="AB2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="s">
         <v>23</v>
@@ -1973,19 +1936,10 @@
       <c r="AW2" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="3" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2035,11 +1989,8 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
     </row>
-    <row r="4" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2091,34 +2042,33 @@
       <c r="AW4" s="10"/>
       <c r="AX4" s="10"/>
       <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
     </row>
-    <row r="5" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="20"/>
       <c r="P5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -2126,7 +2076,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
@@ -2137,12 +2087,12 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12"/>
@@ -2155,42 +2105,41 @@
       <c r="AO5" s="11"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AR5" s="11"/>
       <c r="AS5" s="11"/>
       <c r="AT5" s="12"/>
       <c r="AU5" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AV5" s="11"/>
       <c r="AW5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX5" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="AX5" s="11"/>
       <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
     </row>
-    <row r="6" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -2202,7 +2151,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -2225,37 +2174,36 @@
       <c r="AO6" s="11"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AR6" s="11"/>
       <c r="AS6" s="11"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AV6" s="11"/>
       <c r="AW6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX6" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="AX6" s="11"/>
       <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
     </row>
-    <row r="7" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -2270,7 +2218,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -2293,7 +2241,7 @@
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
@@ -2303,11 +2251,10 @@
       <c r="AW7" s="11"/>
       <c r="AX7" s="11"/>
       <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
     </row>
-    <row r="8" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2359,11 +2306,10 @@
       <c r="AW8" s="11"/>
       <c r="AX8" s="11"/>
       <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
     </row>
-    <row r="9" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2415,11 +2361,10 @@
       <c r="AW9" s="11"/>
       <c r="AX9" s="11"/>
       <c r="AY9" s="11"/>
-      <c r="AZ9" s="11"/>
     </row>
-    <row r="10" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2471,9 +2416,8 @@
       <c r="AW10" s="11"/>
       <c r="AX10" s="11"/>
       <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
     </row>
-    <row r="11" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2525,193 +2469,186 @@
       <c r="AW11" s="10"/>
       <c r="AX11" s="10"/>
       <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
     </row>
-    <row r="12" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44" t="s">
+    <row r="12" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44" t="s">
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="43"/>
+      <c r="AY12" s="43"/>
+    </row>
+    <row r="13" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44" t="s">
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
     </row>
-    <row r="13" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47" t="s">
+    <row r="14" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-    </row>
-    <row r="14" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>143</v>
+      <c r="B14" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>134</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -2724,7 +2661,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="26"/>
+      <c r="O14" s="25"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
@@ -2761,246 +2698,256 @@
       <c r="AW14" s="17"/>
       <c r="AX14" s="17"/>
       <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
     </row>
-    <row r="15" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>144</v>
+    <row r="15" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32" t="s">
-        <v>134</v>
-      </c>
+      <c r="F15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="17"/>
       <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
     </row>
-    <row r="16" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="56" t="s">
+    <row r="16" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="50"/>
+      <c r="P16" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" t="s">
+        <v>183</v>
+      </c>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" t="s">
+        <v>184</v>
+      </c>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="56" t="s">
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU16" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="AL16" s="49"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="49"/>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="49"/>
-      <c r="AS16" s="49"/>
-      <c r="AT16" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="49"/>
-      <c r="AX16" s="49"/>
-      <c r="AY16" s="49"/>
-      <c r="AZ16" s="49"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
     </row>
-    <row r="17" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="32"/>
-      <c r="AV17" s="32"/>
-      <c r="AW17" s="32"/>
-      <c r="AX17" s="32"/>
-      <c r="AY17" s="32"/>
-      <c r="AZ17" s="32"/>
+    <row r="17" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
     </row>
-    <row r="18" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>150</v>
+    <row r="18" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="26"/>
+      <c r="O18" s="25"/>
       <c r="P18" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
@@ -3011,12 +2958,12 @@
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AF18" s="17"/>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
@@ -3035,62 +2982,61 @@
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
     </row>
-    <row r="19" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>150</v>
+    <row r="19" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="50" t="s">
-        <v>114</v>
+      <c r="F19" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="49" t="s">
+        <v>109</v>
       </c>
       <c r="AI19" s="17"/>
       <c r="AJ19" s="17"/>
@@ -3109,16 +3055,15 @@
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
     </row>
-    <row r="20" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="38"/>
+    <row r="20" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="37"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -3130,7 +3075,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="26"/>
+      <c r="O20" s="25"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
@@ -3150,7 +3095,7 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
       <c r="AH20" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AI20" s="17"/>
       <c r="AJ20" s="17"/>
@@ -3169,55 +3114,46 @@
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
       <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
     </row>
-    <row r="21" spans="1:52" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:51" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="33"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>184</v>
-      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="54" t="s">
-        <v>184</v>
-      </c>
+      <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="55" t="s">
-        <v>185</v>
+      <c r="L21" s="53" t="s">
+        <v>180</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="P21" s="54" t="s">
-        <v>184</v>
-      </c>
+      <c r="O21" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" s="52"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
-      <c r="S21" s="54" t="s">
-        <v>184</v>
+      <c r="S21" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
-      <c r="V21" s="54" t="s">
-        <v>184</v>
+      <c r="V21" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="54" t="s">
-        <v>184</v>
+      <c r="Y21" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
@@ -3227,37 +3163,22 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="17"/>
       <c r="AG21" s="17"/>
-      <c r="AH21" s="54" t="s">
-        <v>184</v>
-      </c>
+      <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
       <c r="AL21" s="17"/>
       <c r="AM21" s="17"/>
-      <c r="AN21" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="54" t="s">
-        <v>184</v>
-      </c>
       <c r="AR21" s="17"/>
       <c r="AS21" s="17"/>
       <c r="AT21" s="17"/>
-      <c r="AU21" s="54" t="s">
-        <v>184</v>
-      </c>
+      <c r="AU21" s="52"/>
       <c r="AV21" s="17"/>
       <c r="AW21" s="17"/>
-      <c r="AX21" s="54" t="s">
-        <v>184</v>
-      </c>
+      <c r="AX21" s="17"/>
       <c r="AY21" s="17"/>
-      <c r="AZ21" s="17"/>
     </row>
-    <row r="22" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3309,12 +3230,11 @@
       <c r="AW22" s="13"/>
       <c r="AX22" s="13"/>
       <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
     </row>
-    <row r="23" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -3363,53 +3283,52 @@
       <c r="AW23" s="13"/>
       <c r="AX23" s="13"/>
       <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
     </row>
-    <row r="24" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>154</v>
+        <v>126</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>145</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="21"/>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -3417,91 +3336,88 @@
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
       <c r="AE24" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
       <c r="AH24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="12"/>
       <c r="AK24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
       <c r="AN24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AO24" s="12"/>
       <c r="AP24" s="12"/>
       <c r="AQ24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AR24" s="12"/>
       <c r="AS24" s="12"/>
       <c r="AT24" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AU24" t="s">
-        <v>178</v>
-      </c>
-      <c r="AV24" s="27" t="s">
-        <v>132</v>
+        <v>169</v>
+      </c>
+      <c r="AV24" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="AW24" s="12"/>
-      <c r="AX24" t="s">
-        <v>179</v>
-      </c>
+      <c r="AX24" s="12"/>
       <c r="AY24" s="12"/>
-      <c r="AZ24" s="12"/>
     </row>
-    <row r="25" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>156</v>
+        <v>126</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>147</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="21"/>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
       <c r="V25" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
@@ -3509,87 +3425,84 @@
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
       <c r="AE25" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
       <c r="AH25" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
       <c r="AK25" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
       <c r="AN25" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AO25" s="12"/>
       <c r="AP25" s="12"/>
       <c r="AQ25" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AR25" s="12"/>
       <c r="AS25" s="12"/>
       <c r="AT25"/>
       <c r="AU25" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AV25" s="12"/>
       <c r="AW25" s="12"/>
-      <c r="AX25" t="s">
-        <v>181</v>
-      </c>
+      <c r="AX25" s="12"/>
       <c r="AY25" s="12"/>
-      <c r="AZ25" s="12"/>
     </row>
-    <row r="26" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>158</v>
+        <v>126</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="21"/>
       <c r="P26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
       <c r="V26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
@@ -3597,148 +3510,142 @@
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
       <c r="AH26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12"/>
       <c r="AK26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
       <c r="AN26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR26" s="12"/>
       <c r="AS26" s="12"/>
       <c r="AT26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AU26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV26" s="12"/>
       <c r="AW26" s="12"/>
-      <c r="AX26" t="s">
-        <v>129</v>
-      </c>
+      <c r="AX26" s="12"/>
       <c r="AY26" s="12"/>
-      <c r="AZ26" s="12"/>
     </row>
-    <row r="27" spans="1:52" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>160</v>
+        <v>126</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" t="s">
-        <v>168</v>
+      <c r="F27" s="56" t="s">
+        <v>159</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="21"/>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
-      <c r="AE27" t="s">
-        <v>168</v>
+      <c r="AE27" s="56" t="s">
+        <v>159</v>
       </c>
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
       <c r="AH27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="12"/>
       <c r="AK27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AL27" s="12"/>
       <c r="AM27" s="12"/>
       <c r="AN27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
       <c r="AQ27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AR27" s="12"/>
       <c r="AS27" s="12"/>
       <c r="AT27" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>168</v>
+        <v>156</v>
+      </c>
+      <c r="AU27" s="56" t="s">
+        <v>159</v>
       </c>
       <c r="AV27" s="12"/>
       <c r="AW27" s="12"/>
-      <c r="AX27" t="s">
-        <v>182</v>
-      </c>
+      <c r="AX27" s="12"/>
       <c r="AY27" s="12"/>
-      <c r="AZ27" s="12"/>
     </row>
-    <row r="28" spans="1:52" ht="96.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>161</v>
+        <v>126</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" t="s">
-        <v>167</v>
+      <c r="F28" s="57" t="s">
+        <v>158</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -3764,73 +3671,70 @@
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
-      <c r="AE28" t="s">
-        <v>173</v>
+      <c r="AE28" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="AF28" s="12"/>
       <c r="AG28" s="12"/>
       <c r="AH28" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="12"/>
       <c r="AK28" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AL28" s="12"/>
       <c r="AM28" s="12"/>
       <c r="AN28" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AO28" s="12"/>
       <c r="AP28" s="12"/>
-      <c r="AQ28" s="26" t="s">
-        <v>123</v>
+      <c r="AQ28" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="AR28" s="12"/>
       <c r="AS28" s="12"/>
-      <c r="AT28" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>183</v>
+      <c r="AT28" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU28" s="56" t="s">
+        <v>171</v>
       </c>
       <c r="AV28" s="12"/>
       <c r="AW28" s="12"/>
-      <c r="AX28"/>
+      <c r="AX28" s="12"/>
       <c r="AY28" s="12"/>
-      <c r="AZ28" s="12"/>
     </row>
-    <row r="29" spans="1:52" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>162</v>
+        <v>126</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="23" t="s">
-        <v>83</v>
-      </c>
+      <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="24" t="s">
-        <v>89</v>
+      <c r="L29" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
-      <c r="O29" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="24" t="s">
-        <v>90</v>
+      <c r="O29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
@@ -3858,22 +3762,21 @@
       <c r="AN29" s="22"/>
       <c r="AO29" s="22"/>
       <c r="AP29" s="22"/>
-      <c r="AQ29" s="42"/>
+      <c r="AQ29" s="41"/>
       <c r="AR29" s="22"/>
       <c r="AS29" s="22"/>
-      <c r="AT29" s="26" t="s">
-        <v>124</v>
+      <c r="AT29" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="AV29" s="22"/>
       <c r="AW29" s="22"/>
       <c r="AX29" s="22"/>
       <c r="AY29" s="22"/>
-      <c r="AZ29" s="22"/>
     </row>
-    <row r="30" spans="1:52" s="25" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+    <row r="30" spans="1:51" s="24" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -3922,7 +3825,6 @@
       <c r="AW30" s="14"/>
       <c r="AX30" s="14"/>
       <c r="AY30" s="14"/>
-      <c r="AZ30" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY01_RNASeq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\3ASY01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C8F24-B4C7-FB4C-BD34-A50DD86CF61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACE78A9-EC77-4D13-9157-0C0366130C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="4" r:id="rId1"/>
@@ -772,10 +772,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{5A4EA250-5962-A84F-B56A-F423CA6BEC0B}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{DFD47CC1-D918-4340-9505-CC1F645AC6D8}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
@@ -934,7 +934,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1257,61 +1257,61 @@
       <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.33203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="39.33203125" style="22"/>
+    <col min="1" max="2" width="39.375" style="22"/>
     <col min="3" max="3" width="16" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6640625" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="49.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="45.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.375" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="65.625" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="49.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.875" style="7" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="66" style="7" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="39" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="52.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.375" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="52.875" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="65" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="71.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="71.125" style="7" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="65" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="71.83203125" style="7" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="78.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="49.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="71.875" style="7" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="78.125" style="7" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="49.875" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="61" style="7" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="67.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="55.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="63.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="67.375" style="7" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="55.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="63.125" style="7" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="69.5" style="7" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="40.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="51.83203125" style="7" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="58.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="45.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="58.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="40.375" style="7" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="51.875" style="7" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="58.375" style="7" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="45.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="58.625" style="7" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="65" style="7" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="55.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="85.6640625" style="7" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="91.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="55.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="85.625" style="7" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="91.875" style="7" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="44.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="64.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="70.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="50.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="71.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="64.125" style="7" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="70.375" style="7" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="50.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="71.125" style="7" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="77.5" style="7" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="91.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="91.125" style="7" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="75" style="7" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="81.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="35.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="81.125" style="7" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="35.375" style="7" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="57.5" style="7" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="64" style="7" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="36.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="62.83203125" style="7" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="69.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="51" max="16384" width="39.33203125" style="7"/>
+    <col min="47" max="47" width="36.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="33.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="62.875" style="7" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="69.375" style="7" hidden="1" customWidth="1"/>
+    <col min="51" max="16384" width="39.375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="AW1" s="3"/>
       <c r="AX1" s="27"/>
     </row>
-    <row r="2" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
     </row>
-    <row r="4" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8"/>
@@ -1623,7 +1623,7 @@
       <c r="AW4" s="29"/>
       <c r="AX4" s="29"/>
     </row>
-    <row r="5" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>77</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="AW7" s="31"/>
       <c r="AX7" s="31"/>
     </row>
-    <row r="8" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="AW8" s="31"/>
       <c r="AX8" s="31"/>
     </row>
-    <row r="9" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
@@ -1939,7 +1939,7 @@
       <c r="AW9" s="31"/>
       <c r="AX9" s="31"/>
     </row>
-    <row r="10" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="AW10" s="31"/>
       <c r="AX10" s="31"/>
     </row>
-    <row r="11" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
@@ -2045,7 +2045,7 @@
       <c r="AW11" s="29"/>
       <c r="AX11" s="29"/>
     </row>
-    <row r="12" spans="1:50" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>105</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="AW12" s="32"/>
       <c r="AX12" s="32"/>
     </row>
-    <row r="13" spans="1:50" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>104</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="AW13" s="32"/>
       <c r="AX13" s="32"/>
     </row>
-    <row r="14" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="11"/>
@@ -2219,7 +2219,7 @@
       <c r="AW14" s="33"/>
       <c r="AX14" s="33"/>
     </row>
-    <row r="15" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="AX15" s="30"/>
     </row>
-    <row r="16" spans="1:50" s="23" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>75</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="AW16" s="53"/>
       <c r="AX16" s="53"/>
     </row>
-    <row r="17" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="AW17" s="30"/>
       <c r="AX17" s="30"/>
     </row>
-    <row r="18" spans="1:50" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="AW18" s="30"/>
       <c r="AX18" s="30"/>
     </row>
-    <row r="19" spans="1:50" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -2625,7 +2625,7 @@
       <c r="AW19" s="30"/>
       <c r="AX19" s="30"/>
     </row>
-    <row r="20" spans="1:50" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="AW20" s="36"/>
       <c r="AX20" s="36"/>
     </row>
-    <row r="21" spans="1:50" s="15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="12"/>

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\3ASY01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACE78A9-EC77-4D13-9157-0C0366130C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D96726-9B21-48A3-BCB2-E3BFEF5EC3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -577,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -605,15 +605,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -621,7 +612,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,9 +685,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
@@ -779,6 +767,9 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -924,10 +915,10 @@
     <tableColumn id="42" xr3:uid="{5DEEB0AA-4BC3-F04E-ADAF-CB6EC27B6F47}" name="Parameter [Library strand]" dataDxfId="4"/>
     <tableColumn id="43" xr3:uid="{4A2942EF-C8A7-B447-A2D0-71C6825B7E67}" name="Term Source REF [Library strand] (#h; #tNFDI4PSO:0000020)"/>
     <tableColumn id="44" xr3:uid="{F8E13DAD-A5E8-6043-93D9-AAF673CBB1AE}" name="Term Accession Number [Library strand] (#h; #tNFDI4PSO:0000020)"/>
-    <tableColumn id="45" xr3:uid="{6485F3EF-9735-B74E-958B-107722DC588D}" name="Data File Name" dataDxfId="3"/>
-    <tableColumn id="46" xr3:uid="{0425BA52-9F21-3C43-9855-4DCF1AB9FDC8}" name="Parameter [Raw data file format]" dataDxfId="2"/>
-    <tableColumn id="47" xr3:uid="{FFB5D601-D1A6-E247-9839-723F644EC700}" name="Term Source REF [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="1"/>
-    <tableColumn id="48" xr3:uid="{C692B159-D0C9-534A-A34D-23F9298131E4}" name="Term Accession Number [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="0"/>
+    <tableColumn id="46" xr3:uid="{0425BA52-9F21-3C43-9855-4DCF1AB9FDC8}" name="Parameter [Raw data file format]" dataDxfId="3"/>
+    <tableColumn id="47" xr3:uid="{FFB5D601-D1A6-E247-9839-723F644EC700}" name="Term Source REF [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="2"/>
+    <tableColumn id="48" xr3:uid="{C692B159-D0C9-534A-A34D-23F9298131E4}" name="Term Accession Number [Raw data file format] (#h; #tNFDI4PSO:0000021)" dataDxfId="1"/>
+    <tableColumn id="45" xr3:uid="{6485F3EF-9735-B74E-958B-107722DC588D}" name="Data File Name" dataDxfId="0" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1230,7 +1221,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="615" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1254,68 +1245,69 @@
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="39.375" style="22"/>
-    <col min="3" max="3" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.375" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="65.625" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="49.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.875" style="7" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="66" style="7" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="39" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.375" style="7" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="52.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="65" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="71.125" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="65" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="71.875" style="7" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="78.125" style="7" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="49.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="61" style="7" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="67.375" style="7" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="55.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="63.125" style="7" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="69.5" style="7" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="40.375" style="7" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="51.875" style="7" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="58.375" style="7" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="45.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="58.625" style="7" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="65" style="7" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="55.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="85.625" style="7" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="91.875" style="7" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="44.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="64.125" style="7" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="70.375" style="7" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="50.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="71.125" style="7" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="77.5" style="7" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="91.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="75" style="7" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="81.125" style="7" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="35.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="57.5" style="7" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="64" style="7" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="36.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="62.875" style="7" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="69.375" style="7" hidden="1" customWidth="1"/>
-    <col min="51" max="16384" width="39.375" style="7"/>
+    <col min="3" max="3" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="64.25" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="38.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.25" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="65.125" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="61.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="42.125" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="46.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.375" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="70.125" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="41.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="70.25" style="7" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="77.125" style="7" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="38.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59.875" style="7" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="66.5" style="7" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="38.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.5" style="7" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="68.25" style="7" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="39.375" style="7" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="50.25" style="7" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="57" style="7" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="38.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="57.375" style="7" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="64" style="7" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="55.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="85" style="7" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="91.75" style="7" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="43.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="62.125" style="7" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="68.875" style="7" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="48.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="69.375" style="7" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="76.125" style="7" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="87.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="73" style="7" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="79.625" style="7" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="43.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="55.875" style="7" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="62.625" style="7" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="61.5" style="7" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="68.25" style="7" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="18.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="36.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="39.375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="1"/>
@@ -1365,7 +1357,7 @@
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
-      <c r="AX1" s="27"/>
+      <c r="AX1" s="3"/>
     </row>
     <row r="2" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1505,16 +1497,16 @@
         <v>37</v>
       </c>
       <c r="AU2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX2" t="s">
         <v>38</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
@@ -1571,481 +1563,481 @@
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
     </row>
-    <row r="4" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="29"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="29"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="29"/>
+      <c r="AC4" s="28"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="29"/>
+      <c r="AF4" s="28"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="29"/>
+      <c r="AI4" s="28"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="29"/>
+      <c r="AL4" s="28"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="29"/>
+      <c r="AO4" s="28"/>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
-      <c r="AR4" s="29"/>
+      <c r="AR4" s="28"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
     </row>
-    <row r="5" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>49</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>50</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30" t="s">
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
-      <c r="AC5" s="30"/>
+      <c r="AC5" s="29"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
-      <c r="AF5" s="30" t="s">
+      <c r="AF5" s="29" t="s">
         <v>53</v>
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="30" t="s">
+      <c r="AI5" s="29" t="s">
         <v>54</v>
       </c>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
-      <c r="AL5" s="31">
+      <c r="AL5" s="30">
         <v>1.7</v>
       </c>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
-      <c r="AO5" s="31"/>
+      <c r="AO5" s="30"/>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
-      <c r="AR5" s="30" t="s">
+      <c r="AR5" s="29" t="s">
         <v>56</v>
       </c>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="54" t="s">
+      <c r="AU5" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="30" t="s">
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="29" t="s">
         <v>55</v>
       </c>
+      <c r="AX5" s="29"/>
     </row>
-    <row r="6" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>59</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>60</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="31"/>
+      <c r="AC6" s="30"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
-      <c r="AF6" s="31"/>
+      <c r="AF6" s="30"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
-      <c r="AI6" s="31"/>
+      <c r="AI6" s="30"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
-      <c r="AL6" s="31"/>
+      <c r="AL6" s="30"/>
       <c r="AM6" s="9"/>
       <c r="AN6" s="9"/>
-      <c r="AO6" s="31"/>
+      <c r="AO6" s="30"/>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
-      <c r="AR6" s="30" t="s">
+      <c r="AR6" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30" t="s">
+      <c r="AU6" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="30" t="s">
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="29" t="s">
         <v>62</v>
       </c>
+      <c r="AX6" s="29"/>
     </row>
-    <row r="7" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>66</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="31"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="31"/>
+      <c r="AC7" s="30"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
-      <c r="AF7" s="31"/>
+      <c r="AF7" s="30"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
-      <c r="AI7" s="31"/>
+      <c r="AI7" s="30"/>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
-      <c r="AL7" s="31"/>
+      <c r="AL7" s="30"/>
       <c r="AM7" s="9"/>
       <c r="AN7" s="9"/>
-      <c r="AO7" s="31"/>
+      <c r="AO7" s="30"/>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
-      <c r="AR7" s="30" t="s">
+      <c r="AR7" s="29" t="s">
         <v>68</v>
       </c>
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
       <c r="AU7" s="30"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="29"/>
     </row>
-    <row r="8" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>98</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
-      <c r="AC8" s="31"/>
+      <c r="AC8" s="30"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
-      <c r="AF8" s="31"/>
+      <c r="AF8" s="30"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
-      <c r="AI8" s="31"/>
+      <c r="AI8" s="30"/>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
-      <c r="AL8" s="31"/>
+      <c r="AL8" s="30"/>
       <c r="AM8" s="9"/>
       <c r="AN8" s="9"/>
-      <c r="AO8" s="31"/>
+      <c r="AO8" s="30"/>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
-      <c r="AR8" s="31"/>
+      <c r="AR8" s="30"/>
       <c r="AS8" s="9"/>
       <c r="AT8" s="9"/>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="31"/>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="31"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="30"/>
+      <c r="AX8" s="30"/>
     </row>
-    <row r="9" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="31"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="31"/>
+      <c r="AC9" s="30"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
-      <c r="AF9" s="31"/>
+      <c r="AF9" s="30"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
-      <c r="AI9" s="31"/>
+      <c r="AI9" s="30"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
-      <c r="AL9" s="31"/>
+      <c r="AL9" s="30"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
-      <c r="AO9" s="31"/>
+      <c r="AO9" s="30"/>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
-      <c r="AR9" s="31"/>
+      <c r="AR9" s="30"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30"/>
     </row>
-    <row r="10" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="31"/>
+      <c r="AC10" s="30"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
-      <c r="AF10" s="31"/>
+      <c r="AF10" s="30"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
-      <c r="AI10" s="31"/>
+      <c r="AI10" s="30"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
-      <c r="AL10" s="31"/>
+      <c r="AL10" s="30"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
-      <c r="AO10" s="31"/>
+      <c r="AO10" s="30"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
-      <c r="AR10" s="31"/>
+      <c r="AR10" s="30"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
+      <c r="AX10" s="30"/>
     </row>
-    <row r="11" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="29"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
-      <c r="AC11" s="29"/>
+      <c r="AC11" s="28"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
-      <c r="AF11" s="29"/>
+      <c r="AF11" s="28"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
-      <c r="AI11" s="29"/>
+      <c r="AI11" s="28"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="29"/>
+      <c r="AL11" s="28"/>
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="29"/>
+      <c r="AO11" s="28"/>
       <c r="AP11" s="8"/>
       <c r="AQ11" s="8"/>
-      <c r="AR11" s="29"/>
+      <c r="AR11" s="28"/>
       <c r="AS11" s="8"/>
       <c r="AT11" s="8"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
     </row>
-    <row r="12" spans="1:50" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>105</v>
       </c>
@@ -2054,29 +2046,29 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="31" t="s">
         <v>69</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32" t="s">
+      <c r="N12" s="40"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31" t="s">
         <v>72</v>
       </c>
       <c r="X12" s="16"/>
@@ -2084,32 +2076,32 @@
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
-      <c r="AC12" s="32"/>
+      <c r="AC12" s="31"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
-      <c r="AF12" s="32"/>
+      <c r="AF12" s="31"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="16"/>
-      <c r="AI12" s="32" t="s">
+      <c r="AI12" s="31" t="s">
         <v>69</v>
       </c>
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
-      <c r="AL12" s="32"/>
+      <c r="AL12" s="31"/>
       <c r="AM12" s="16"/>
       <c r="AN12" s="16"/>
-      <c r="AO12" s="32"/>
+      <c r="AO12" s="31"/>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="16"/>
-      <c r="AR12" s="32"/>
+      <c r="AR12" s="31"/>
       <c r="AS12" s="16"/>
       <c r="AT12" s="16"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="32"/>
-      <c r="AW12" s="32"/>
-      <c r="AX12" s="32"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
     </row>
-    <row r="13" spans="1:50" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>104</v>
       </c>
@@ -2118,108 +2110,108 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>99</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
-      <c r="AC13" s="32"/>
+      <c r="AC13" s="31"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
-      <c r="AF13" s="32"/>
+      <c r="AF13" s="31"/>
       <c r="AG13" s="16"/>
       <c r="AH13" s="16"/>
-      <c r="AI13" s="32"/>
+      <c r="AI13" s="31"/>
       <c r="AJ13" s="16"/>
       <c r="AK13" s="16"/>
-      <c r="AL13" s="32"/>
+      <c r="AL13" s="31"/>
       <c r="AM13" s="16"/>
       <c r="AN13" s="16"/>
-      <c r="AO13" s="32"/>
+      <c r="AO13" s="31"/>
       <c r="AP13" s="16"/>
       <c r="AQ13" s="16"/>
-      <c r="AR13" s="32"/>
+      <c r="AR13" s="31"/>
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="32"/>
-      <c r="AW13" s="32"/>
-      <c r="AX13" s="32"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
     </row>
-    <row r="14" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="33"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
-      <c r="AC14" s="33"/>
+      <c r="AC14" s="32"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
-      <c r="AF14" s="33"/>
+      <c r="AF14" s="32"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="33"/>
+      <c r="AI14" s="32"/>
       <c r="AJ14" s="11"/>
       <c r="AK14" s="11"/>
-      <c r="AL14" s="33"/>
+      <c r="AL14" s="32"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
-      <c r="AO14" s="33"/>
+      <c r="AO14" s="32"/>
       <c r="AP14" s="11"/>
       <c r="AQ14" s="11"/>
-      <c r="AR14" s="33"/>
+      <c r="AR14" s="32"/>
       <c r="AS14" s="11"/>
       <c r="AT14" s="11"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
     </row>
-    <row r="15" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
@@ -2243,21 +2235,21 @@
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
       <c r="Q15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
       <c r="T15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
       <c r="W15" s="2" t="s">
         <v>82</v>
       </c>
@@ -2297,17 +2289,17 @@
       <c r="AS15"/>
       <c r="AT15"/>
       <c r="AU15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV15" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AV15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW15" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX15" s="30"/>
     </row>
-    <row r="16" spans="1:50" s="23" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" s="23" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>75</v>
       </c>
@@ -2316,37 +2308,37 @@
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>83</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="33" t="s">
         <v>89</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="43" t="s">
+      <c r="N16" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="34" t="s">
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="34" t="s">
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="34" t="s">
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="33" t="s">
         <v>83</v>
       </c>
       <c r="X16" s="13"/>
@@ -2354,44 +2346,44 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
-      <c r="AC16" s="34" t="s">
+      <c r="AC16" s="33" t="s">
         <v>83</v>
       </c>
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
-      <c r="AF16" s="34" t="s">
+      <c r="AF16" s="33" t="s">
         <v>91</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="13"/>
-      <c r="AI16" s="34" t="s">
+      <c r="AI16" s="33" t="s">
         <v>93</v>
       </c>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="13"/>
-      <c r="AL16" s="34" t="s">
+      <c r="AL16" s="33" t="s">
         <v>93</v>
       </c>
       <c r="AM16" s="13"/>
       <c r="AN16" s="13"/>
-      <c r="AO16" s="34" t="s">
+      <c r="AO16" s="33" t="s">
         <v>93</v>
       </c>
       <c r="AP16" s="13"/>
       <c r="AQ16" s="13"/>
-      <c r="AR16" s="34" t="s">
+      <c r="AR16" s="33" t="s">
         <v>93</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="26"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34" t="s">
+      <c r="AU16" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="53"/>
+      <c r="AV16" s="52"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="33"/>
     </row>
-    <row r="17" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -2415,21 +2407,21 @@
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
       <c r="T17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
       <c r="W17" s="2" t="s">
         <v>70</v>
       </c>
@@ -2471,13 +2463,13 @@
       <c r="AU17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AV17" s="2" t="s">
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AW17" s="30"/>
-      <c r="AX17" s="30"/>
     </row>
-    <row r="18" spans="1:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -2486,7 +2478,7 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="10"/>
@@ -2496,26 +2488,26 @@
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="34" t="s">
         <v>87</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
       <c r="Q18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
       <c r="T18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
       <c r="W18" s="2" t="s">
         <v>84</v>
       </c>
@@ -2529,7 +2521,7 @@
       </c>
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
-      <c r="AF18" s="35" t="s">
+      <c r="AF18" s="34" t="s">
         <v>87</v>
       </c>
       <c r="AG18" s="10"/>
@@ -2554,16 +2546,16 @@
       </c>
       <c r="AS18"/>
       <c r="AT18"/>
-      <c r="AU18" s="2" t="s">
+      <c r="AU18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AV18" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW18" s="30"/>
-      <c r="AX18" s="30"/>
     </row>
-    <row r="19" spans="1:50" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -2581,25 +2573,25 @@
       <c r="K19" s="2"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
       <c r="W19" s="2"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
-      <c r="AC19" s="30"/>
+      <c r="AC19" s="29"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
-      <c r="AF19" s="36"/>
+      <c r="AF19" s="35"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="2" t="s">
@@ -2621,9 +2613,9 @@
       <c r="AS19"/>
       <c r="AT19"/>
       <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="30"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2634,106 +2626,106 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="36"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="36"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="2"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="44" t="s">
+      <c r="N20" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
-      <c r="AC20" s="36"/>
+      <c r="AC20" s="35"/>
       <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="36"/>
+      <c r="AF20" s="35"/>
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
-      <c r="AI20" s="36"/>
+      <c r="AI20" s="35"/>
       <c r="AJ20" s="14"/>
       <c r="AK20" s="14"/>
-      <c r="AL20" s="36"/>
+      <c r="AL20" s="35"/>
       <c r="AM20" s="14"/>
       <c r="AN20" s="14"/>
-      <c r="AO20" s="36"/>
+      <c r="AO20" s="35"/>
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
-      <c r="AR20" s="36"/>
+      <c r="AR20" s="35"/>
       <c r="AS20" s="14"/>
       <c r="AT20" s="14"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="36"/>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="35"/>
+      <c r="AX20" s="35"/>
     </row>
-    <row r="21" spans="1:50" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="37"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="37"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="37"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="37"/>
+      <c r="AC21" s="36"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
-      <c r="AF21" s="37"/>
+      <c r="AF21" s="36"/>
       <c r="AG21" s="12"/>
       <c r="AH21" s="12"/>
-      <c r="AI21" s="37"/>
+      <c r="AI21" s="36"/>
       <c r="AJ21" s="12"/>
       <c r="AK21" s="12"/>
-      <c r="AL21" s="37"/>
+      <c r="AL21" s="36"/>
       <c r="AM21" s="12"/>
       <c r="AN21" s="12"/>
-      <c r="AO21" s="37"/>
+      <c r="AO21" s="36"/>
       <c r="AP21" s="12"/>
       <c r="AQ21" s="12"/>
-      <c r="AR21" s="37"/>
+      <c r="AR21" s="36"/>
       <c r="AS21" s="12"/>
       <c r="AT21" s="12"/>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="37"/>
-      <c r="AX21" s="37"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2750,31 +2742,31 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTable2" Worksheet="3ASY01_RNASeq">
-    <TableValidation DateTime="2021-03-03 16:34" SwateVersion="0.4.0" TableName="annotationTable2" Userlist="" WorksheetName="3ASY01_RNASeq">
+    <TableValidation DateTime="2021-09-13 13:11" SwateVersion="0.4.7" TableName="annotationTable2" Userlist="" WorksheetName="3ASY01_RNASeq">
       <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="1" ColumnHeader="Sample Name" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="2" ColumnHeader="Parameter [Library strategy]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Library strategy"/>
       <ColumnValidation ColumnAdress="5" ColumnHeader="Parameter [Library Selection]" Importance="4" Unit="None" ValidationFormat="OntologyTerm Library Selection"/>
       <ColumnValidation ColumnAdress="8" ColumnHeader="Parameter [Library layout]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Library preparation kit version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Library preparation kit]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="11" ColumnHeader="Parameter [Library preparation kit]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="14" ColumnHeader="Parameter [Library preparation kit version]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="17" ColumnHeader="Parameter [Adapter sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
       <ColumnValidation ColumnAdress="20" ColumnHeader="Parameter [Library RNA amount]" Importance="4" Unit="microgram" ValidationFormat="UnitTerm microgram"/>
-      <ColumnValidation ColumnAdress="26" ColumnHeader="Parameter [Next generation sequencing instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [Base-calling Software]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="32" ColumnHeader="Parameter [Base-calling Software Version]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="35" ColumnHeader="Parameter [Base-calling Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="38" ColumnHeader="Parameter [Library strand]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="41" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="42" ColumnHeader="Parameter [Raw data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="45" ColumnHeader="Parameter [Raw data file checksum]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="26" ColumnHeader="Parameter [rRNA depletion]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [Next generation sequencing instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="32" ColumnHeader="Parameter [Base-calling Software]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="35" ColumnHeader="Parameter [Base-calling Software Version]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="38" ColumnHeader="Parameter [Base-calling Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="41" ColumnHeader="Parameter [Library strand]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="44" ColumnHeader="Parameter [Raw data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="47" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24BFC3E9-D8FA-1F42-A0B4-378878D01719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FDF065-BBBF-417F-8D0D-55EF1798FE4F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9864B4EA-B10A-4826-93BD-AE3294B73299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D86496-CF3A-46BF-96C6-4ED0FF6C032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="3ASY01_RNASeq" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9BDCD857-0DD1-430B-81A9-59C269F09A66}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9BDCD857-0DD1-430B-81A9-59C269F09A66}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=9a78e1cc-5e8e-441b-9b7e-eb41cf93d574</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Source Name</t>
   </si>
@@ -151,6 +172,132 @@
   </si>
   <si>
     <t>Data File Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>9a78e1cc-5e8e-441b-9b7e-eb41cf93d574</t>
+  </si>
+  <si>
+    <t>RNA-Seq Assay</t>
+  </si>
+  <si>
+    <t>Template to describe preparation and measurement of RNA-Seq.</t>
+  </si>
+  <si>
+    <t>annotationTableSpicySloth85</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Transcriptomics</t>
+  </si>
+  <si>
+    <t>mRNASeq</t>
+  </si>
+  <si>
+    <t>RNASeq</t>
+  </si>
+  <si>
+    <t>Assay</t>
+  </si>
+  <si>
+    <t>Jabeen</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Hajira</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
@@ -160,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,19 +315,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -189,9 +444,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -277,6 +562,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{185084E8-F281-495B-89F1-DAB8EAF0C513}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,9 +882,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T16:53:00.61" personId="{185084E8-F281-495B-89F1-DAB8EAF0C513}" id="{9BDCD857-0DD1-430B-81A9-59C269F09A66}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T16:53:00.61" personId="{185084E8-F281-495B-89F1-DAB8EAF0C513}" id="{BE157602-3053-4779-A40F-6146CF261DD6}" parentId="{9BDCD857-0DD1-430B-81A9-59C269F09A66}">
+    <text>id=9a78e1cc-5e8e-441b-9b7e-eb41cf93d574</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="623" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -820,4 +1122,268 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCFAEC7-2CE0-4201-B33B-152C0680AE1F}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableSpicySloth85">
+    <TableValidation DateTime="2021-11-03 16:52" SwateVersion="0.5.1" TableName="annotationTableSpicySloth85" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [Library strategy]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [Library Selection]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [Library layout]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [Library preparation kit]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Parameter [Library preparation kit version]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="16" ColumnHeader="Parameter [Adapter sequence]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="19" ColumnHeader="Parameter [Library RNA amount]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="23" ColumnHeader="Parameter [rRNA depletion]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="26" ColumnHeader="Parameter [Next generation sequencing instrument model]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="29" ColumnHeader="Parameter [Base-calling Software]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="32" ColumnHeader="Parameter [Base-calling Software Parameters]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="35" ColumnHeader="Parameter [Library strand]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="38" ColumnHeader="Parameter [Raw data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="41" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D0C21EC-F71C-472F-B8EE-CB0044E24130}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D86496-CF3A-46BF-96C6-4ED0FF6C032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D729693-85A3-43DB-BB35-EFE99737C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="126">
   <si>
     <t>Source Name</t>
   </si>
@@ -298,6 +299,132 @@
   </si>
   <si>
     <t>1.1.4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000035</t>
+  </si>
+  <si>
+    <t>NFDI4PSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000035</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000036</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000036</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000037</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000037</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000038</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000038</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000039</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000039</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000016</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000016</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000082</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000082</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000040</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000040</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000017</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000017</t>
+  </si>
+  <si>
+    <t>Parameter [Base-calling Software Version]</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000018</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000018</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000019</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000019</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000020</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000020</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000021</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000021</t>
   </si>
 </sst>
 </file>
@@ -307,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,12 +449,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -915,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1358,6 +1479,719 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableSpicySloth85">

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D729693-85A3-43DB-BB35-EFE99737C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2368526-59A1-40B9-BCDC-8D44C04B8FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY01_RNASeq" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
   <si>
     <t>Source Name</t>
   </si>
@@ -425,6 +434,163 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000021</t>
+  </si>
+  <si>
+    <t>Unable to find a parent class that covers both / only single vs. paired
+http://purl.obolibrary.org/obo/OBI_0600047
+http://purl.obolibrary.org/obo/NCIT_C150423</t>
+  </si>
+  <si>
+    <t>Unit: microgram</t>
+  </si>
+  <si>
+    <t>PROTOCOLS_library strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Sequence Read Archive-specific field that describes the sequencing technique for this library. Please select one of the following terms:
+RNA-Seq
+miRNA-Seq
+ncRNA-Seq
+RNA-Seq (size fractionation)
+RNA-Seq (CAGE)
+RNA-Seq (RACE)
+ssRNA-seq
+ChIP-Seq
+MNase-Seq
+MBD-Seq
+MRE-Seq
+Bisulfite-Seq
+Bisulfite-Seq (reduced representation)
+MeDIP-Seq
+DNase-Hypersensitivity
+Tn-Seq
+FAIRE-seq
+SELEX
+RIP-Seq
+ATAC-seq
+ChIA-PET
+Hi-C
+OTHER: specify
+</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>PROTOCOLS_library construction protocol</t>
+  </si>
+  <si>
+    <t>Describe the library construction protocol.</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>RAW FILES_single or paired-end</t>
+  </si>
+  <si>
+    <t>Enter "single" (usual case) or "paired-end".</t>
+  </si>
+  <si>
+    <t>How to handle deviations from instructer´s manual?</t>
+  </si>
+  <si>
+    <t>RAW FILES_instrument model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include one of the following models:
+Illumina Genome Analyzer IIx
+Illumina HiSeq 1000
+Illumina HiSeq 1500
+Illumina HiSeq 2000
+Illumina HiSeq 2500
+Illumina HiSeq 3000
+Illumina HiSeq 4000
+Illumina NextSeq 500
+Illumina NextSeq 550
+Illumina HiSeq X Ten
+Illumina HiSeq X Five
+Illumina NovaSeq 6000
+Illumina MiSeq
+Illumina HiScanSQ
+Illumina MiniSeq
+Illumina iSeq 100
+BGISEQ-500
+DNBSEQ-G400
+DNBSEQ-T7
+DNBSEQ-G50
+Ion Torrent PGM
+Ion Torrent Proton
+Ion Torrent S5
+Ion Torrent S5 XL
+PacBio RS
+PacBio RS II
+Sequel
+Sequel II
+AB SOLiD System 2.0
+AB SOLiD System 3.0
+AB SOLiD 3 Plus System
+AB SOLiD 4 System
+AB SOLiD 4hq System
+AB SOLiD PI System
+AB 5500 Genetic Analyzer
+AB 5500xl Genetic Analyzer
+AB 5500xl-W Genetic Analysis System
+454 GS
+454 GS 20
+454 GS FLX
+454 GS FLX+
+454 GS Junior
+454 GS FLX Titanium
+Complete Genomics
+Helicos HeliScope
+GridION
+MinION
+PromethION
+</t>
+  </si>
+  <si>
+    <t>DATA PROCESSING PIPELINE_data processing step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
+Base-calling software, version, parameters;
+Data filtering steps;
+Read alignment software, version, parameters;
+Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+etc...
+</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>at least some info is required, but not all terms</t>
+  </si>
+  <si>
+    <t>RAW FILES_file type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include one of the following types:
+fastq
+bam
+Illumina_native_qseq
+Illumina_native
+SOLiD_native_csfasta
+SOLiD_native_qual
+sff
+454_native_seq
+454_native_qual
+Helicos_native
+srf
+PacBio_HDF5
+</t>
+  </si>
+  <si>
+    <t>RAW FILES_file name</t>
   </si>
 </sst>
 </file>
@@ -483,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -561,11 +727,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,6 +778,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1483,9 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1495,7 +1680,7 @@
     <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1504,688 +1689,552 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" t="s">
-        <v>84</v>
-      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2368526-59A1-40B9-BCDC-8D44C04B8FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4556D474-90B2-4BE2-B8F6-8DBCD33E8959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="171">
   <si>
     <t>Source Name</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Dominik</t>
-  </si>
-  <si>
-    <t>1.1.4</t>
   </si>
   <si>
     <t/>
@@ -592,6 +589,81 @@
   <si>
     <t>RAW FILES_file name</t>
   </si>
+  <si>
+    <t>RNA-Seq strategy</t>
+  </si>
+  <si>
+    <t>ChIP-Seq strategy</t>
+  </si>
+  <si>
+    <t>ssRNA-seq</t>
+  </si>
+  <si>
+    <t>cDNA method</t>
+  </si>
+  <si>
+    <t>size fractionation method</t>
+  </si>
+  <si>
+    <t>PolyA</t>
+  </si>
+  <si>
+    <t>rRNA depletion</t>
+  </si>
+  <si>
+    <t>Paired-end</t>
+  </si>
+  <si>
+    <t>Single-end</t>
+  </si>
+  <si>
+    <t>Illumina TrueSeq</t>
+  </si>
+  <si>
+    <t>ACTTGA</t>
+  </si>
+  <si>
+    <t>TAGCTT</t>
+  </si>
+  <si>
+    <t>CGTACG</t>
+  </si>
+  <si>
+    <t>HiSeq 2000</t>
+  </si>
+  <si>
+    <t>Illumina Casava</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Parameter [Base-calling Software version]</t>
+  </si>
+  <si>
+    <t>Term Source REF (NFDI4PSO:0000018)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NFDI4PSO:0000018)</t>
+  </si>
+  <si>
+    <t>.fastq</t>
+  </si>
+  <si>
+    <t>.ab1</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
 </sst>
 </file>
 
@@ -600,7 +672,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +684,19 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -743,10 +828,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,11 +871,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3A68927A-4D0F-438E-A11A-69BC80D82D4C}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
@@ -818,7 +906,16 @@
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
@@ -879,9 +976,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}" name="annotationTableSpicySloth85" displayName="annotationTableSpicySloth85" ref="A1:AP2" totalsRowShown="0">
-  <autoFilter ref="A1:AP2" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}"/>
-  <tableColumns count="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}" name="annotationTableSpicySloth85" displayName="annotationTableSpicySloth85" ref="A1:AS5" totalsRowShown="0">
+  <autoFilter ref="A1:AS5" xr:uid="{FF8CF88B-39F4-4BB8-A79A-D46E92AF4094}"/>
+  <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{DDD81922-E978-4A5A-A247-30D8EC830850}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{447A413B-B655-4E5D-BC02-D7557A9E4C62}" name="Parameter [Library strategy]"/>
     <tableColumn id="4" xr3:uid="{9BBFE835-D0D7-4C6D-A1A5-68598432EDA2}" name="Term Source REF (NFDI4PSO:0000035)"/>
@@ -901,19 +998,22 @@
     <tableColumn id="18" xr3:uid="{89B6BCBB-C5AD-4373-B0EA-160F3BBCA468}" name="Parameter [Adapter sequence]"/>
     <tableColumn id="19" xr3:uid="{7C720ACC-EDDD-4B8C-B7F4-F21BDC9B0FFF}" name="Term Source REF (NFDI4PSO:0000039)"/>
     <tableColumn id="20" xr3:uid="{743BF0E4-CDEB-4353-988F-B91A1D110B43}" name="Term Accession Number (NFDI4PSO:0000039)"/>
-    <tableColumn id="21" xr3:uid="{C2221C5A-A581-47B0-99E1-8D8101F1F64D}" name="Parameter [Library RNA amount]" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{406988CC-530E-4763-91F9-71C83D968873}" name="Unit" dataDxfId="21"/>
-    <tableColumn id="23" xr3:uid="{05065244-1A82-4F1F-B9B7-0A69AAE33604}" name="Term Source REF (NFDI4PSO:0000016)" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{6CD94A2D-03CE-49DA-96F8-3F68DB81454E}" name="Term Accession Number (NFDI4PSO:0000016)" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{541AA4B9-BAFF-430B-8B9A-F2C021B53404}" name="Parameter [rRNA depletion]" dataDxfId="18"/>
-    <tableColumn id="26" xr3:uid="{2CE133DA-0A67-40F6-A2D3-5E44ECC584FE}" name="Term Source REF (NFDI4PSO:0000082)" dataDxfId="17"/>
-    <tableColumn id="27" xr3:uid="{7E102C7E-3D48-4AE3-B973-C93CF504F0EE}" name="Term Accession Number (NFDI4PSO:0000082)" dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (NFDI4PSO:0000040)" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (NFDI4PSO:0000040)" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [Base-calling Software]" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="11"/>
-    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{C2221C5A-A581-47B0-99E1-8D8101F1F64D}" name="Parameter [Library RNA amount]" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{406988CC-530E-4763-91F9-71C83D968873}" name="Unit" dataDxfId="24"/>
+    <tableColumn id="23" xr3:uid="{05065244-1A82-4F1F-B9B7-0A69AAE33604}" name="Term Source REF (NFDI4PSO:0000016)" dataDxfId="23"/>
+    <tableColumn id="24" xr3:uid="{6CD94A2D-03CE-49DA-96F8-3F68DB81454E}" name="Term Accession Number (NFDI4PSO:0000016)" dataDxfId="22"/>
+    <tableColumn id="25" xr3:uid="{541AA4B9-BAFF-430B-8B9A-F2C021B53404}" name="Parameter [rRNA depletion]" dataDxfId="21"/>
+    <tableColumn id="26" xr3:uid="{2CE133DA-0A67-40F6-A2D3-5E44ECC584FE}" name="Term Source REF (NFDI4PSO:0000082)" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{7E102C7E-3D48-4AE3-B973-C93CF504F0EE}" name="Term Accession Number (NFDI4PSO:0000082)" dataDxfId="19"/>
+    <tableColumn id="28" xr3:uid="{9C794364-C911-4D05-A9A8-DFDE330A09C2}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{AE615784-B0E6-47BF-AE01-023BF5AA206E}" name="Term Source REF (NFDI4PSO:0000040)" dataDxfId="17"/>
+    <tableColumn id="30" xr3:uid="{BAD8DB17-65F5-45BD-A7AA-6B024B5CE069}" name="Term Accession Number (NFDI4PSO:0000040)" dataDxfId="16"/>
+    <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [Base-calling Software]" dataDxfId="15"/>
+    <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="14"/>
+    <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="13"/>
+    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [Base-calling Software version]" dataDxfId="12"/>
+    <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (NFDI4PSO:0000018)" dataDxfId="11"/>
+    <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (NFDI4PSO:0000018)" dataDxfId="10"/>
     <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [Base-calling Software Parameters]" dataDxfId="9"/>
     <tableColumn id="35" xr3:uid="{EE5985B1-BFA8-4880-80F1-BBC5E373AEA4}" name="Term Source REF (NFDI4PSO:0000019)" dataDxfId="8"/>
     <tableColumn id="36" xr3:uid="{5957DE4F-4101-47BD-A1D2-8A8C3805387F}" name="Term Accession Number (NFDI4PSO:0000019)" dataDxfId="7"/>
@@ -1203,8 +1303,11 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="625" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="643" row="3">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
@@ -1219,9 +1322,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{E6E17174-D1EE-42AD-8695-B7125DABAE59}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1259,19 +1372,21 @@
     <col min="30" max="30" width="34" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="43.7109375" style="14" customWidth="1"/>
+    <col min="34" max="35" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="44.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1368,38 +1483,62 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1407,24 +1546,145 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
+      <c r="AG2" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
+      <c r="AM2" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
+      <c r="AP2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>158</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1465,7 +1725,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1690,40 +1950,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1731,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1750,16 +2010,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -1775,29 +2035,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -1807,29 +2067,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -1839,29 +2099,29 @@
         <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="I6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -1871,31 +2131,31 @@
         <v>10</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1903,27 +2163,27 @@
         <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -1933,27 +2193,27 @@
         <v>16</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -1963,29 +2223,29 @@
         <v>19</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="I10" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -1995,27 +2255,27 @@
         <v>23</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -2025,27 +2285,27 @@
         <v>26</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="I12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -2055,64 +2315,64 @@
         <v>29</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="I14" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -2121,30 +2381,30 @@
         <v>32</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="I15" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="J15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="L15" s="13"/>
     </row>
@@ -2153,27 +2413,27 @@
         <v>35</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="I16" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="J16" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -2183,27 +2443,27 @@
         <v>38</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="I17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -2213,25 +2473,25 @@
         <v>41</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>

--- a/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
+++ b/templates/3ASY01_RNASeq/3ASY01_RNASeq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY01_RNASeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4556D474-90B2-4BE2-B8F6-8DBCD33E8959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F581FFF-29AE-43A7-9047-A98F1C783622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="175">
   <si>
     <t>Source Name</t>
   </si>
@@ -611,9 +611,6 @@
     <t>rRNA depletion</t>
   </si>
   <si>
-    <t>Paired-end</t>
-  </si>
-  <si>
     <t>Single-end</t>
   </si>
   <si>
@@ -647,9 +644,6 @@
     <t>Forward</t>
   </si>
   <si>
-    <t>Parameter [Base-calling Software version]</t>
-  </si>
-  <si>
     <t>Term Source REF (NFDI4PSO:0000018)</t>
   </si>
   <si>
@@ -662,7 +656,25 @@
     <t>.ab1</t>
   </si>
   <si>
-    <t>1.1.5</t>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000009</t>
+  </si>
+  <si>
+    <t>paired-end</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000087</t>
+  </si>
+  <si>
+    <t>microgram</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1023,7 @@
     <tableColumn id="31" xr3:uid="{9791FFA0-96AA-41FF-837C-5CD04C7414C8}" name="Parameter [Base-calling Software]" dataDxfId="15"/>
     <tableColumn id="32" xr3:uid="{482633AE-33E1-4455-8BC3-9D5A09A98094}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="14"/>
     <tableColumn id="33" xr3:uid="{98CB4042-CD1B-4E0C-B718-7E81226BF0F8}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="13"/>
-    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [Base-calling Software version]" dataDxfId="12"/>
+    <tableColumn id="50" xr3:uid="{3CCB5926-3B22-468E-A9A9-17F469915A9F}" name="Parameter [Base-calling Software Version]" dataDxfId="12"/>
     <tableColumn id="51" xr3:uid="{9873F5F5-4534-4DF9-B18C-69858B28E021}" name="Term Source REF (NFDI4PSO:0000018)" dataDxfId="11"/>
     <tableColumn id="52" xr3:uid="{E50595D3-C218-4183-8EC4-0B001A8697BD}" name="Term Accession Number (NFDI4PSO:0000018)" dataDxfId="10"/>
     <tableColumn id="34" xr3:uid="{228D9D5B-B4BB-432B-8766-144F2F7EE00C}" name="Parameter [Base-calling Software Parameters]" dataDxfId="9"/>
@@ -1303,7 +1315,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="625" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="631" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="643" row="3">
@@ -1372,8 +1384,9 @@
     <col min="30" max="30" width="34" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="43.7109375" style="14" customWidth="1"/>
-    <col min="34" max="35" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="44.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="43.7109375" hidden="1" customWidth="1"/>
@@ -1484,13 +1497,13 @@
         <v>31</v>
       </c>
       <c r="AG1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI1" t="s">
         <v>165</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>167</v>
       </c>
       <c r="AJ1" s="14" t="s">
         <v>32</v>
@@ -1527,71 +1540,157 @@
       <c r="B2" t="s">
         <v>146</v>
       </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
       <c r="E2" t="s">
         <v>149</v>
       </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>169</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
       </c>
       <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" t="s">
         <v>155</v>
       </c>
-      <c r="Q2" t="s">
-        <v>156</v>
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" t="s">
+        <v>101</v>
       </c>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG2" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AP2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AS2" s="1"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>147</v>
       </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
       <c r="E3" t="s">
         <v>150</v>
       </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
       </c>
       <c r="Q3" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" t="s">
+        <v>101</v>
       </c>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -1606,31 +1705,63 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AP3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AS3" s="1"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>148</v>
       </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
       <c r="E4" t="s">
         <v>151</v>
       </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
       <c r="Q4" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="R4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" t="s">
+        <v>101</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -1645,10 +1776,14 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
@@ -1658,10 +1793,22 @@
       <c r="E5" t="s">
         <v>152</v>
       </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1725,7 +1872,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
